--- a/WordPress勉強/WordPress.xlsx
+++ b/WordPress勉強/WordPress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keite\Desktop\ノート\WordPress勉強\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B0BEC8-70B6-4FC2-8539-ECB748D60800}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8BA058-6549-4379-B12C-07DE59A7AE9A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8952" xr2:uid="{23A547DA-F9B8-4989-9B8D-BFB06737F436}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="リンク" sheetId="22" r:id="rId1"/>
     <sheet name="環境構築" sheetId="24" r:id="rId2"/>
     <sheet name="用語" sheetId="23" r:id="rId3"/>
+    <sheet name="セッション" sheetId="25" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="78">
   <si>
     <t>Webサイトで公開されるHTMLファイルや画像などが置かれる最上位のディレクトリ</t>
     <rPh sb="26" eb="27">
@@ -246,6 +247,231 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>セッション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッションファイル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sess_&lt;セッションID&gt;のファイル名でどっかに保存される</t>
+    <rPh sb="19" eb="20">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッションID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッションファイルと紐づいたＩＤ</t>
+    <rPh sb="10" eb="11">
+      <t>ヒモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバーに保存される</t>
+    <rPh sb="5" eb="7">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クライアントのクッキーに保存される</t>
+    <rPh sb="12" eb="14">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$_COOKIE[PHPSESSID]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$_SESSION</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッションIDが参照できる</t>
+    <rPh sb="8" eb="10">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッション変数</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッションファイルを参照する</t>
+    <rPh sb="10" eb="12">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クライアントごとに中身は違う</t>
+    <rPh sb="9" eb="11">
+      <t>ナカミ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>session_start()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$_SESSIONが使えるようになる</t>
+    <rPh sb="10" eb="11">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッションIDに紐づいたセッションファイルがあれば既存のセッションを開始する</t>
+    <rPh sb="8" eb="9">
+      <t>ヒモ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>キソン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッションIDに紐づいたセッションファイルがなければ新規のセッションを開始する</t>
+    <rPh sb="8" eb="9">
+      <t>ヒモ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://blog.apar.jp/php/12373/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>認証に成功したら何でもいいからセッション変数に値を入れる</t>
+    <rPh sb="0" eb="2">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次のリクエスト時にはセッション変数を確認し値が入ってればログイン済み</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッションについて非常に分かり易い</t>
+    <rPh sb="9" eb="11">
+      <t>ヒジョウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヤス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッションファイルの保存場所など</t>
+    <rPh sb="10" eb="12">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッション使うときの注意点など</t>
+    <rPh sb="5" eb="6">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>チュウイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>session_regenerate_id()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッションIDを振りなおす</t>
+    <rPh sb="8" eb="9">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッションについて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PHP $_SESSION(セッション変数)のすべて！【初心者向け基本】</t>
+  </si>
+  <si>
+    <t>https://wepicks.net/phpref-session/</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1166,6 +1392,5877 @@
               </a:solidFill>
             </a:rPr>
             <a:t>チェック外す</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBEBD0B0-5FCB-44ED-956A-09C571A6BCCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6941820" y="4556760"/>
+          <a:ext cx="2125980" cy="861060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{530D2EF6-9BE5-48A8-8CFF-8029BF829C3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1569720" y="6057900"/>
+          <a:ext cx="1112520" cy="426720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="吹き出し: 線 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27209BDA-F128-4D16-8EE9-16A4E6367B79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6065520" y="43037760"/>
+          <a:ext cx="1950720" cy="624840"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100457"/>
+            <a:gd name="adj2" fmla="val -5208"/>
+            <a:gd name="adj3" fmla="val 13720"/>
+            <a:gd name="adj4" fmla="val -71927"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Xdebug</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>はデフォルトで</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>9000</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>が使われる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="四角形: 1 つの角を切り取る 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D052220-B4F1-424B-948E-89F4F158AEC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3840480" y="11887200"/>
+          <a:ext cx="7178040" cy="3063240"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip1Rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{837B295A-D1CC-44D2-A56E-BEDC43D96CEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4739640" y="12131040"/>
+          <a:ext cx="1219200" cy="716280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>クッキー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5964245-C2B3-48A1-A784-6753C51FA718}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8755380" y="12603480"/>
+          <a:ext cx="1478280" cy="1478280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形: 1 つの角を切り取る 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6D1F18B-D913-472F-84AD-B9BD107A4DDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3832860" y="7993380"/>
+          <a:ext cx="7231380" cy="3063240"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip1Rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>45721</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>53342</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>129541</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{997B562F-2DB9-4AFF-814F-177F40EA16DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3947161" y="8077201"/>
+          <a:ext cx="739140" cy="739140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>68581</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B08A6BD3-760F-42C5-9A4A-82DC8ACF88DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3962400" y="9037320"/>
+          <a:ext cx="739140" cy="739140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B586621-E8A3-4B91-983A-6AC76A1E77A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3931920" y="9982200"/>
+          <a:ext cx="739140" cy="739140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC877D17-481B-4A58-9848-8998FA68F8BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6515100" y="9216390"/>
+          <a:ext cx="784860" cy="320040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ログイン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{979AA669-4950-4E3D-8CFB-78389E56AB0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6515100" y="8282940"/>
+          <a:ext cx="784860" cy="320040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ログイン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFF8FC64-3277-4195-9D57-9AC35506D766}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6515100" y="10187940"/>
+          <a:ext cx="784860" cy="320040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ログイン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>53341</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>217171</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="コネクタ: カギ線 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B40F62F-7BD7-4F29-9205-587AD9BEC69E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="10" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4686301" y="8442960"/>
+          <a:ext cx="1828799" cy="3811"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="6350">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="コネクタ: カギ線 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{715B2BFD-8125-4947-BA60-1805E89288E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7299960" y="9376410"/>
+          <a:ext cx="1127760" cy="41910"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="6350">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="コネクタ: カギ線 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5EE6703-52F7-4172-90AB-10E90C9907DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4701540" y="9376410"/>
+          <a:ext cx="1813560" cy="30480"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="6350">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="コネクタ: カギ線 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86DA8DAE-F12F-4228-B652-220ECD2EA224}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="11" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4671060" y="10347960"/>
+          <a:ext cx="1844040" cy="3810"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="6350">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="コネクタ: カギ線 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D71F4D9B-EEAD-42F9-AF73-3FA016B5E68D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7299960" y="10043160"/>
+          <a:ext cx="1135380" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="6350">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="コネクタ: カギ線 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A13D072-0B81-49B6-9DD7-D00DFC80B730}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7299960" y="8442960"/>
+          <a:ext cx="1188720" cy="480060"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="6350">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="楕円 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8417BD90-C15D-4210-9D54-74B459CDBA66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6583680" y="8176260"/>
+          <a:ext cx="662940" cy="510540"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="楕円 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1C68946-D7EC-48F6-B7B5-8B639327AAA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6583680" y="9098280"/>
+          <a:ext cx="662940" cy="510540"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="楕円 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8441EAC7-A198-4ACD-A872-DB0553563B7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6583680" y="10088880"/>
+          <a:ext cx="662940" cy="510540"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>53341</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>83821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>60962</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>137161</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="図 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5006DAB-68B3-42E6-BAA8-CD315555C03C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3954781" y="11971021"/>
+          <a:ext cx="739140" cy="739140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="図 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF2D89DE-A222-429D-966E-A7F8AA91A5D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3970020" y="12931140"/>
+          <a:ext cx="739140" cy="739140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>45721</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="図 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AB94B3D-B7AF-40CE-A85C-0A708EC8CC88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3939540" y="13876020"/>
+          <a:ext cx="739140" cy="739140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>39405</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="図 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34D2D6FF-6892-48FC-9476-78F3AF44CB41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10218420" y="13700760"/>
+          <a:ext cx="306105" cy="388620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="テキスト ボックス 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{107C4324-CC4B-46BC-8C33-71D77A04F55B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4815840" y="12473940"/>
+          <a:ext cx="1051560" cy="281940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>セッション</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>91439</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>51162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9796</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>165462</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="吹き出し: 角を丸めた四角形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDF03596-E2D6-420E-AB8D-49AC6213B9BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1310639" y="12624162"/>
+          <a:ext cx="2356757" cy="1485900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 54688"/>
+            <a:gd name="adj2" fmla="val -33151"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>・クッキーに</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>セッション</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>保存する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="四角形: 1 つの角を切り取る 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEA076EF-E29E-48DD-A749-66E1ADF738F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3840480" y="15544800"/>
+          <a:ext cx="7139940" cy="3063240"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip1Rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>53341</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>83821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>60962</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>137161</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="図 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CC3F3D8-C6DD-4079-AE00-95FDBD7AA00F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3954781" y="15628621"/>
+          <a:ext cx="739140" cy="739140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="図 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3FA45ED-CDF4-413F-B8E2-26A8ED0ECC1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3970020" y="16588740"/>
+          <a:ext cx="739140" cy="739140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>45721</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="図 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{152F2183-151E-42C7-820C-31805F0844EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3939540" y="17533620"/>
+          <a:ext cx="739140" cy="739140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="コネクタ: カギ線 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00144794-59F3-40C5-96B0-96E9854A2101}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4907280" y="16984980"/>
+          <a:ext cx="3680460" cy="106680"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="6350">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="コネクタ: カギ線 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EC09F30-7741-4084-A578-589B37A51DEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4785360" y="17701260"/>
+          <a:ext cx="3810000" cy="205740"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="6350">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="コネクタ: カギ線 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{304B8607-EB55-46B0-BDA9-B8C613FC8C41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4831080" y="16017240"/>
+          <a:ext cx="3802380" cy="449580"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="6350">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="吹き出し: 角を丸めた四角形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBFB3AA7-4530-4D8C-A808-9D209A2FDCDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11209020" y="13716000"/>
+          <a:ext cx="2804160" cy="1485900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -69130"/>
+            <a:gd name="adj2" fmla="val -45385"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>・セッションファイルを生成する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>・セッション</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>を発行しクライアントに返す</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="テキスト ボックス 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{041A0B7F-4C41-45F0-A572-9243C2F3EEED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10187940" y="14112240"/>
+          <a:ext cx="640080" cy="175260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700"/>
+            <a:t>$_SESSION</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>8925</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="図 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CDC2BBE-07E1-4313-A9CC-49B10BCBE1E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10187940" y="13068300"/>
+          <a:ext cx="306105" cy="388620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="テキスト ボックス 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{056D7787-47E2-4C11-B9B4-05BCC8589A24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10187940" y="13464540"/>
+          <a:ext cx="640080" cy="175260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700"/>
+            <a:t>$_SESSION</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>237525</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="図 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EEB0BF5-1459-43B4-A3C2-098F6E27250A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10172700" y="12451080"/>
+          <a:ext cx="306105" cy="388620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="テキスト ボックス 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4367B28-AE7F-4B88-93D5-2D84071AD088}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10180320" y="12862560"/>
+          <a:ext cx="640080" cy="175260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700"/>
+            <a:t>$_SESSION</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="図 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7453364-A90C-417F-8FAE-01EEAAD82227}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8793480" y="16360140"/>
+          <a:ext cx="1478280" cy="1478280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>77505</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="図 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B56F2809-D066-4308-A41C-B882E2AE5062}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10256520" y="17457420"/>
+          <a:ext cx="306105" cy="388620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="テキスト ボックス 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5656E33D-2A79-41A4-9D7C-1287FEB1DF92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10226040" y="17868900"/>
+          <a:ext cx="640080" cy="175260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700"/>
+            <a:t>$_SESSION</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>47025</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="図 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80459B96-72AA-4E15-9C8F-D80FAB7C24BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10226040" y="16824960"/>
+          <a:ext cx="306105" cy="388620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="テキスト ボックス 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF41B6AA-5846-4B31-9D1D-9B3D1F3BAB8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10226040" y="17221200"/>
+          <a:ext cx="640080" cy="175260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700"/>
+            <a:t>$_SESSION</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>31785</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="図 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CC62CDF-A3AA-4992-9EE1-35F77B69774D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10210800" y="16207740"/>
+          <a:ext cx="306105" cy="388620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="テキスト ボックス 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AAF9AE8-3BF5-45AD-9F82-6F49E635E54F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10218420" y="16619220"/>
+          <a:ext cx="640080" cy="175260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700"/>
+            <a:t>$_SESSION</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="図 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D33944F2-FFEA-420C-9B3B-F8DDBC7F8BBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8663940" y="8717280"/>
+          <a:ext cx="1478280" cy="1478280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2177</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="吹き出し: 角を丸めた四角形 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B7E0821-85C3-4F8E-8A7E-A5833129A260}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1303020" y="16192500"/>
+          <a:ext cx="2356757" cy="1485900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 54688"/>
+            <a:gd name="adj2" fmla="val -33151"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>・次のリクエスト時にセッション</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>の入ったクッキーも送る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="直線矢印コネクタ 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3FE72B0-90AF-4556-9EE8-DB7EBB393E4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4838700" y="12054840"/>
+          <a:ext cx="3649980" cy="975360"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="正方形/長方形 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9B7ACFB-E186-4B48-AB4F-7D31A1714542}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4808220" y="12992100"/>
+          <a:ext cx="1219200" cy="716280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>クッキー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="テキスト ボックス 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD24B907-F952-410D-85C6-C0945D6DF282}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4884420" y="13335000"/>
+          <a:ext cx="1051560" cy="281940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>セッション</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>198122</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直線矢印コネクタ 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{160C2886-2FCB-4482-907E-D7405F5D1527}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4831082" y="13235940"/>
+          <a:ext cx="3688078" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="正方形/長方形 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCA05E46-0128-4539-ACD2-69A1AFA3D59F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4815840" y="13868400"/>
+          <a:ext cx="1219200" cy="716280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>クッキー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="テキスト ボックス 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94F3C4B0-1CC4-43F3-8057-F7EAA3A3FE70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4892040" y="14211300"/>
+          <a:ext cx="1051560" cy="281940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>セッション</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="直線矢印コネクタ 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4893DFBE-E688-4975-A87D-B96E11E46FB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4739640" y="13388340"/>
+          <a:ext cx="3756660" cy="853440"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="正方形/長方形 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39F9F629-BBAA-440A-BF6C-9AF1F94B7545}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6690360" y="15788640"/>
+          <a:ext cx="1219200" cy="716280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>クッキー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="テキスト ボックス 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC5CB9FA-21D5-45AB-ABB7-7699EB53C711}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6766560" y="16131540"/>
+          <a:ext cx="1051560" cy="281940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>セッション</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="正方形/長方形 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78AC1F6A-CE7E-4EC7-8C38-99A50A79288E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6758940" y="16649700"/>
+          <a:ext cx="1219200" cy="716280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>クッキー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="テキスト ボックス 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDC6207B-474A-432C-9EE0-DD63E598C400}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6835140" y="16992600"/>
+          <a:ext cx="1051560" cy="281940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>セッション</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="正方形/長方形 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F34BB8D-9149-45A1-B5FB-F739E4FF5961}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6766560" y="17526000"/>
+          <a:ext cx="1219200" cy="716280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>クッキー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="テキスト ボックス 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BE58E5D-3629-4C90-B59F-4BB32A90D51D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6842760" y="17868900"/>
+          <a:ext cx="1051560" cy="281940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>セッション</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="矢印: 下 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78A61C82-65FF-4CE9-9643-10A19EB87544}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5547360" y="12726093"/>
+          <a:ext cx="1564871" cy="524394"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>129541</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="矢印: 下 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E275FCC6-BB36-4B06-9051-4653FC80AE07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5329646" y="3657600"/>
+          <a:ext cx="1505495" cy="510540"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>144087</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="四角形: 1 つの角を切り取る 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80200D42-3114-4CF7-AD5E-E1B2E5908812}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2880360" y="17337578"/>
+          <a:ext cx="7344295" cy="3153295"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip1Rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>29787</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>60267</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="正方形/長方形 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74743480-F7CF-4E59-911C-97D53B0EBDD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1630680" y="16946187"/>
+          <a:ext cx="1219200" cy="716280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>クッキー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>174567</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>52647</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="図 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A68D8217-1713-4CF0-98C9-540E0968D2C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7906096" y="18074640"/>
+          <a:ext cx="1511531" cy="1526771"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7621</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>227908</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>15242</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>52648</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="図 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E2A1D69-08D1-4DCF-AD17-EDB7D06DAD51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3000203" y="17421399"/>
+          <a:ext cx="755766" cy="766849"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>45028</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>30481</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>98367</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="図 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{487A0FA9-86AB-4FBB-A510-C1D4EA258EDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3015442" y="18416155"/>
+          <a:ext cx="755766" cy="759921"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>241762</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>75508</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>128847</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="図 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C83D709B-FE85-4D0F-A918-FFAC4345B777}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2984962" y="19388744"/>
+          <a:ext cx="755766" cy="759921"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>128847</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>243067</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>60267</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="図 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D73FE31C-43DC-4919-9C4D-5D9DC2C7F91A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9402387" y="19206556"/>
+          <a:ext cx="317189" cy="402475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>144087</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>197427</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="テキスト ボックス 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B675F3B8-4EEE-4346-AD9C-1191BF104922}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1706880" y="17289087"/>
+          <a:ext cx="1051560" cy="281940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>セッション</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>83127</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="テキスト ボックス 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6357442-B759-4737-88CE-F77817F87F49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9371907" y="19631891"/>
+          <a:ext cx="656706" cy="175260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700"/>
+            <a:t>$_SESSION</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>182188</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>207045</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>113607</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="図 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{548BFDCF-5F31-423B-8B28-9E576BC06191}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9371907" y="18553315"/>
+          <a:ext cx="311647" cy="402474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>121227</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>67887</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="テキスト ボックス 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB348FE6-FE7B-4D80-B22A-68EC4372D9DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9371907" y="18963409"/>
+          <a:ext cx="656706" cy="182187"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700"/>
+            <a:t>$_SESSION</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>191805</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>182187</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="図 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0421215C-54F4-469C-AA93-657803CC8ABA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9356667" y="17915313"/>
+          <a:ext cx="311647" cy="402474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>205047</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>151708</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="テキスト ボックス 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4670D35-674F-42C8-B244-4D9B5914311A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9364287" y="18340647"/>
+          <a:ext cx="656706" cy="182188"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700"/>
+            <a:t>$_SESSION</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>83127</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>144088</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="直線矢印コネクタ 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1A2C8C7-33D4-4F8E-9B77-4F33B35AAEE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3900747" y="17512145"/>
+          <a:ext cx="3733108" cy="1003070"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>205048</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>6927</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="正方形/長方形 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51F891FF-881B-47C3-9D68-63964AD111CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1699260" y="17807248"/>
+          <a:ext cx="1219200" cy="716279"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>クッキー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>90747</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>144087</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="テキスト ボックス 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BF16202-79EB-48A8-B03A-D17726CE6256}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1775460" y="18150147"/>
+          <a:ext cx="1051560" cy="281940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>セッション</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152402</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>121227</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>159327</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="直線矢印コネクタ 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ABB0229-B2DC-4479-B879-13AF58EF1EDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3893129" y="18727882"/>
+          <a:ext cx="3771206" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>166948</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>197427</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="正方形/長方形 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66064FA4-B8A9-4700-A610-B65B65E5A2E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1706880" y="18683548"/>
+          <a:ext cx="1219200" cy="716279"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>クッキー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>52647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="テキスト ボックス 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBAEEDB7-0B9C-493E-A3CD-2F9E2F81A314}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1783080" y="19026447"/>
+          <a:ext cx="1051560" cy="275013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>セッション</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>45027</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>212667</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="直線矢印コネクタ 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{618D6FEF-1C5F-49BE-92B5-5629C90DDEDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3801687" y="18887209"/>
+          <a:ext cx="3839788" cy="874222"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>180802</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>53339</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="矢印: 下 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B23E49D-5ABA-4D4D-9FF1-BE767EFAEBDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5667202" y="16722436"/>
+          <a:ext cx="1564871" cy="524394"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="正方形/長方形 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E45FCC9-F6A7-4352-98AD-F7367305400F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4107180" y="16916400"/>
+          <a:ext cx="1219200" cy="716280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>会員ページ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="正方形/長方形 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D7DD22C-38CF-4525-A5D3-5D6208D44FDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4091940" y="17853660"/>
+          <a:ext cx="1219200" cy="716280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>会員ページ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="正方形/長方形 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3195F1FD-7F52-4A8A-B3DA-57FF110052A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4091940" y="18775680"/>
+          <a:ext cx="1219200" cy="716280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>会員ページ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="吹き出し: 角を丸めた四角形 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E04AA33-9F45-4D07-BB15-F2DD22364011}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10279380" y="18851880"/>
+          <a:ext cx="2804160" cy="1485900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -69130"/>
+            <a:gd name="adj2" fmla="val -45385"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>・問題なければ会員ページを返す</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="吹き出し: 角を丸めた四角形 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00093AFC-34FB-4B59-AE0A-2A0339F6E7B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10401300" y="14470380"/>
+          <a:ext cx="2804160" cy="1485900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -69130"/>
+            <a:gd name="adj2" fmla="val -45385"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>・セッション</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>に紐づいたセッションファイルを参照する</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1509,7 +7606,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2012331F-8F8B-475B-BFE6-BE110A42D2BD}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1568,13 +7665,50 @@
         <v>25</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B13" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B14" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B15" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B16" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B18" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B19" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{AB639879-BF6F-48F3-A8F0-BE2F89F21682}"/>
+    <hyperlink ref="B13" r:id="rId2" xr:uid="{5B528031-E78C-4EA2-92D3-8A18D3D1811F}"/>
+    <hyperlink ref="B19" r:id="rId3" xr:uid="{9C6D24EF-D22B-4A51-AB41-9C719DE935E5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -1739,9 +7873,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA4960FD-AD13-4AA7-AEB4-A09D87D8B8A2}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1809,35 +7945,38 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C18" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C20" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C22" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
         <v>16</v>
       </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="O27" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1847,4 +7986,153 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D74DC7-4010-4617-A974-1E5E9561D7E7}">
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B36" sqref="B33:B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="16384" width="3.19921875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C4" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C5" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B7" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C8" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C9" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B11" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C12" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C13" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C14" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B16" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C17" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B19" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C20" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C21" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C22" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B24" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C25" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B30" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B31" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B33" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B34" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B35" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B36" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B33" r:id="rId1" xr:uid="{20F4DE1B-9717-4EAD-8796-F6CCE587A873}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
 </file>
--- a/WordPress勉強/WordPress.xlsx
+++ b/WordPress勉強/WordPress.xlsx
@@ -8,15 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keite\Desktop\ノート\WordPress勉強\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8BA058-6549-4379-B12C-07DE59A7AE9A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6869EC2-48A4-4130-90DB-39EC9F5CDC6D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8952" xr2:uid="{23A547DA-F9B8-4989-9B8D-BFB06737F436}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8952" activeTab="3" xr2:uid="{23A547DA-F9B8-4989-9B8D-BFB06737F436}"/>
   </bookViews>
   <sheets>
     <sheet name="リンク" sheetId="22" r:id="rId1"/>
-    <sheet name="環境構築" sheetId="24" r:id="rId2"/>
-    <sheet name="用語" sheetId="23" r:id="rId3"/>
-    <sheet name="セッション" sheetId="25" r:id="rId4"/>
+    <sheet name="eclipse環境構築" sheetId="24" r:id="rId2"/>
+    <sheet name="vscode環境構築" sheetId="34" r:id="rId3"/>
+    <sheet name="mysql" sheetId="32" r:id="rId4"/>
+    <sheet name="composer" sheetId="30" r:id="rId5"/>
+    <sheet name="cakephp" sheetId="33" r:id="rId6"/>
+    <sheet name="用語" sheetId="23" r:id="rId7"/>
+    <sheet name="セッション" sheetId="25" r:id="rId8"/>
+    <sheet name="セッション (絵)" sheetId="26" r:id="rId9"/>
+    <sheet name="namespase" sheetId="29" r:id="rId10"/>
+    <sheet name="PHP" sheetId="31" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="309">
   <si>
     <t>Webサイトで公開されるHTMLファイルや画像などが置かれる最上位のディレクトリ</t>
     <rPh sb="26" eb="27">
@@ -86,10 +93,6 @@
     <t>http://marycore.jp/</t>
   </si>
   <si>
-    <t>アクセス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>https://marycore.jp/coding/htdocs-document-root/#htdocs%EF%BC%8F%E3%83%89%E3%82%AD%E3%83%A5%E3%83%A1%E3%83%B3%E3%83%88%E3%83%AB%E3%83%BC%E3%83%88%E3%81%AE%E5%A0%B4%E6%89%80%EF%BC%88OS%E5%88%A5%EF%BC%89</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -256,16 +259,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>sess_&lt;セッションID&gt;のファイル名でどっかに保存される</t>
-    <rPh sb="19" eb="20">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ホゾン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>セッションID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -291,130 +284,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>$_COOKIE[PHPSESSID]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>$_SESSION</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>セッションIDが参照できる</t>
-    <rPh sb="8" eb="10">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>セッション変数</t>
-    <rPh sb="5" eb="7">
-      <t>ヘンスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>セッションファイルを参照する</t>
-    <rPh sb="10" eb="12">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クライアントごとに中身は違う</t>
-    <rPh sb="9" eb="11">
-      <t>ナカミ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>チガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>session_start()</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>$_SESSIONが使えるようになる</t>
-    <rPh sb="10" eb="11">
-      <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>セッションIDに紐づいたセッションファイルがあれば既存のセッションを開始する</t>
-    <rPh sb="8" eb="9">
-      <t>ヒモ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>キソン</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>カイシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>セッションIDに紐づいたセッションファイルがなければ新規のセッションを開始する</t>
-    <rPh sb="8" eb="9">
-      <t>ヒモ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>カイシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>https://blog.apar.jp/php/12373/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>認証に成功したら何でもいいからセッション変数に値を入れる</t>
-    <rPh sb="0" eb="2">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>セイコウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ナン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>次のリクエスト時にはセッション変数を確認し値が入ってればログイン済み</t>
-    <rPh sb="0" eb="1">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ズ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -470,6 +340,1474 @@
   </si>
   <si>
     <t>https://wepicks.net/phpref-session/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sess_&lt;セッションID&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル名：</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>php.ini</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>phpの設定ファイル</t>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>session.gc_maxlifetime</t>
+  </si>
+  <si>
+    <t>URLとサーバーのパス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッションの有効期限</t>
+    <rPh sb="6" eb="8">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>session.gc_probability／session.gc_divisor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>session.save_path</t>
+  </si>
+  <si>
+    <t>セッションファイルの保存先</t>
+    <rPh sb="10" eb="12">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>session_start()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規のセッションの開始</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>既存のセッションの開始</t>
+    <rPh sb="0" eb="2">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッションファイルの生成</t>
+    <rPh sb="10" eb="12">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッションIDの発行</t>
+    <rPh sb="8" eb="10">
+      <t>ハッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッションガーベジコレクションをする確率</t>
+    <rPh sb="18" eb="20">
+      <t>カクリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>過ぎたらセッションガーベジコレクションの対象になる</t>
+    <rPh sb="0" eb="1">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッションガーベジコレクションの実行</t>
+    <rPh sb="16" eb="18">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$_SESSION</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッションが切れる</t>
+    <rPh sb="6" eb="7">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッションファイルの削除</t>
+    <rPh sb="10" eb="12">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッションIDの削除</t>
+    <rPh sb="8" eb="10">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッション名</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>php.iniで変更できる</t>
+    <rPh sb="8" eb="10">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PHPSESSID（デフォルト）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$_COOKIE[PHPSESSID]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クッキーに保存されたセッション名とセッションID</t>
+    <rPh sb="5" eb="7">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デフォルトでは1/1000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>session_name()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッション名の取得</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>session_id()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッションIDの取得</t>
+    <rPh sb="8" eb="10">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unset($_SESSION['name'])</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$_SESSION = array()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>setcookie(session_name(), '', time()-1, '/')</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>session_destroy()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッションの削除</t>
+    <rPh sb="6" eb="8">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特定のセッション変数の削除</t>
+    <rPh sb="0" eb="2">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://qiita.com/castaneai/items/d5fdf577a348012ed8af</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Xdebugについて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;?php</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>namespase</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定義</t>
+    <rPh sb="0" eb="2">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>namespace 名前空間;</t>
+    <rPh sb="10" eb="12">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>クウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・1ファイルにつき1名前空間が推奨</t>
+    <rPh sb="10" eb="12">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>クウカン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>スイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>namespace sato;</t>
+  </si>
+  <si>
+    <t>function getGreeting() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return '佐藤';</t>
+    <rPh sb="12" eb="14">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sato.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>呼び出し方</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>suzuki.php</t>
+  </si>
+  <si>
+    <t>namespace suzuki;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return '鈴木';</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>require_once 'sato.php';</t>
+  </si>
+  <si>
+    <t>require_once 'suzuki.php';</t>
+  </si>
+  <si>
+    <t>echo sato\getGreeting();</t>
+  </si>
+  <si>
+    <t>名前空間\関数[クラス,インターフェース...]</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クウカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>echo suzuki\getGreeting();</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>call.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>先頭に記述する</t>
+    <rPh sb="0" eb="1">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>アタマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・変数、define()の定数は対象外</t>
+    <rPh sb="1" eb="3">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>テイスウ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>タイショウガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・クラス、インターフェース、関数、const定数などが対象</t>
+    <rPh sb="14" eb="16">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>テイスウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>htmlspecialchars()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>htmlで特別な意味を持つ文字を通常の文字列に変換する</t>
+    <rPh sb="5" eb="7">
+      <t>トクベツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イミ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.flatflag.nir87.com/htmlspecialchars-555</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>htmlspecialchars()について非常に分かり易い</t>
+    <rPh sb="22" eb="24">
+      <t>ヒジョウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ヤス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XSS（クロスサイトスクリプティング）の防止</t>
+    <rPh sb="20" eb="22">
+      <t>ボウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://getcomposer.org/download/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.インストール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Composer-Setup.exeをダウンロードし実行する</t>
+    <rPh sb="26" eb="28">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.確認</t>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コマンドラインで以下コマンドを実行し確認する</t>
+    <rPh sb="8" eb="10">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>composer -v</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.composer install</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vendor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>composer.lock</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デフォルトではPackagistからライブラリをインストールする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://packagist.org/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ライブラリがインストールされるフォルダ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・バージョン管理しない→.gitignoreに追加する</t>
+    <rPh sb="6" eb="8">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・インストールしたライブラリのバージョン情報などが記録される</t>
+    <rPh sb="20" eb="22">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・このファイルが存在する場合はこのファイルを参照してライブラリをインストールする</t>
+    <rPh sb="8" eb="10">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・バージョン管理する（メンバー間でライブラリをバージョンが統一できる）</t>
+    <rPh sb="6" eb="8">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>トウイツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>composer update</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最新のライブラリをインストールする</t>
+    <rPh sb="0" eb="2">
+      <t>サイシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>composer.jsonを参照しライブラリをインストールする</t>
+    <rPh sb="14" eb="16">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>composer.lockなしでcomposer installするのと同じ</t>
+    <rPh sb="36" eb="37">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>autoload</t>
+  </si>
+  <si>
+    <t>autoload</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>autoload.phpをrequireすればライブラリが使えるようになる</t>
+    <rPh sb="29" eb="30">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>composer init</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>composer.json</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>composer.jsonを対話形式で作成する</t>
+    <rPh sb="14" eb="16">
+      <t>タイワ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>composer installを実行する</t>
+    <rPh sb="17" eb="19">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>パッケージ名</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベンダー名/プロジェクト名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>パッケージのバージョン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>除外した方がいい</t>
+    <rPh sb="0" eb="2">
+      <t>ジョガイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gitで管理されるため？</t>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パッケージのタイプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デフォルトはlibrary</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>require</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必要なライブラリ</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オートロード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://getcomposer.org/doc/04-schema.md</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;?PHP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>?&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PHP_EOL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改行文字列</t>
+    <rPh sb="0" eb="2">
+      <t>カイギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>環境によって変わる</t>
+    <rPh sb="0" eb="2">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字列連結</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>レンケツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数行コメント</t>
+    <rPh sb="0" eb="3">
+      <t>フクスウギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>// コメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># コメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字列</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>'文字列'</t>
+    <rPh sb="1" eb="4">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"文字列"</t>
+    <rPh sb="1" eb="4">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シングルクォート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダブルクォート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変数が埋め込める</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$name = 'taguchi';</t>
+  </si>
+  <si>
+    <t>$text = &lt;&lt;&lt;EOT</t>
+  </si>
+  <si>
+    <t>hello! $name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  this is looooong</t>
+  </si>
+  <si>
+    <t>text!</t>
+  </si>
+  <si>
+    <t>EOT;</t>
+  </si>
+  <si>
+    <t>ヒアドキュメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改行など保持</t>
+    <rPh sb="0" eb="2">
+      <t>カイギョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定数の定義</t>
+    <rPh sb="0" eb="2">
+      <t>テイスウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>const NAME = 'taguchi'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>define('NAME', 'taguchi')</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定数は$を付けない、大文字</t>
+    <rPh sb="0" eb="2">
+      <t>テイスウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>オオモジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>var_dump()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変数の値と型を出力</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$str = (String)1000;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">function showAd() </t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  echo '----------' . PHP_EOL;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  echo '--- Ad ---' . PHP_EOL;</t>
+  </si>
+  <si>
+    <t>関数</t>
+    <rPh sb="0" eb="2">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  return $a + $b + $c;</t>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <t>$scores = [</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'first'  =&gt; 90, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'second' =&gt; 40, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'third'  =&gt; 100,</t>
+  </si>
+  <si>
+    <t>];</t>
+  </si>
+  <si>
+    <t>配列</t>
+    <rPh sb="0" eb="2">
+      <t>ハイレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  90, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  100,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  40, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キー名を変更できる</t>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>foreach ($scores as $score) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  echo $score</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>foreach ($scores as $key =&gt; $score) {</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>foreach</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  echo $key</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>print_r()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>var_dumpより見やすい</t>
+    <rPh sb="10" eb="11">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>function sum(...$numbers)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$sum = function ($a, $b, $c) { </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>// 無名関数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>//可変長引数</t>
+    <rPh sb="2" eb="5">
+      <t>カヘンチョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rootのパスワード設定</t>
+    <rPh sb="10" eb="12">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mysqladmin -u root password</t>
+  </si>
+  <si>
+    <t>mysql -h localhost -u root -p</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>drstymh0227</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>接続</t>
+    <rPh sb="0" eb="2">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mysql -h localhost -u abdgonivich -p</t>
+  </si>
+  <si>
+    <t>ユーザー作成</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create user 'abdgonivich' identified by 'drstymh0227'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mysql -h ホスト -u ユーザー -p</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create user 'ユーザー'@'ホスト' identified by 'パスワード'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>show databases</t>
+  </si>
+  <si>
+    <t>\q</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>quit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>exit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>use データベース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>show tables</t>
+  </si>
+  <si>
+    <t>desc テーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>grant all on test.* to abdgonivich</t>
+  </si>
+  <si>
+    <t>権限付与</t>
+    <rPh sb="0" eb="2">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>grant all on データベース.* to ユーザー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>composer create-project --prefer-dist cakephp/app test</t>
+  </si>
+  <si>
+    <t>intl拡張子を有効</t>
+    <rPh sb="4" eb="7">
+      <t>カクチョウシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ユウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>php.iniの以下をコメントアウト</t>
+    <rPh sb="8" eb="10">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>extension=intl</t>
+  </si>
+  <si>
+    <t>プロジェクト作成</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ドキュメントルートで実行</t>
+    <rPh sb="11" eb="13">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>composer create-project --prefer-dist cakephp/app:^3.8 test</t>
+  </si>
+  <si>
+    <t>composer create-project --prefer-dist cakephp/app プロジェクト名</t>
+    <rPh sb="56" eb="57">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bin\cake server -H localhost -p 8000</t>
+  </si>
+  <si>
+    <t>config\app.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Datasourcesの項目を設定</t>
+    <rPh sb="12" eb="14">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・username</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・password</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・database</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・timezone</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定ファイルの修正</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>config\bootstrap.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cakephpサーバー起動</t>
+    <rPh sb="11" eb="13">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cakephpサーバー停止</t>
+    <rPh sb="11" eb="13">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ctrl + C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. PHP Intelephenseの導入</t>
+    <rPh sb="20" eb="22">
+      <t>ドウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2. PHP Debugの導入</t>
+    <rPh sb="13" eb="15">
+      <t>ドウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3. デバッグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C:\xampp\php\ext\</t>
+  </si>
+  <si>
+    <t>xdebugの実行ファイルをダウンロード</t>
+    <rPh sb="7" eb="9">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. phpinfo()の結果をオールコピー</t>
+    <rPh sb="13" eb="15">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2. https://xdebug.org/wizardに結果を張り付け</t>
+    <rPh sb="29" eb="31">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3. php_xdebug～.dllをダウンロードし、以下パスに配置</t>
+    <rPh sb="27" eb="29">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[XDebug]</t>
+  </si>
+  <si>
+    <t>zend_extension="C:\xampp\php\ext\php_xdebug-2.9.8-7.4-vc15-x86_64.dll"</t>
+  </si>
+  <si>
+    <t>xdebug.remote_enable=1</t>
+  </si>
+  <si>
+    <t>xdebug.remote_autostart=1</t>
+  </si>
+  <si>
+    <t>php.iniに以下を追記</t>
+    <rPh sb="8" eb="10">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>launch.jsonの作成</t>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デバッグ→歯車クリックで作成される</t>
+    <rPh sb="5" eb="7">
+      <t>ハグルマ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Listen for Xdebug → ブラウザでデバッグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Launch currently open script → CLIでデバッグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバ立ち上げずにデバッグできる</t>
+    <rPh sb="3" eb="4">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. サーバー起動</t>
+    <rPh sb="7" eb="9">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2. ブレイクポイントの設置</t>
+    <rPh sb="12" eb="14">
+      <t>セッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3. Listen for Xdebugで起動</t>
+    <rPh sb="21" eb="23">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4. ブラウザにアクセス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下記の手順は全てvscodeでPHP Debugを表示させたものを移しただけ</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ウツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>select version()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create user 'ユーザー' identified by 'パスワード'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホスト名を省略した場合は全てのホストから接続できる</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウリャク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホスト名にはlocalhost、ipアドレスなどが指定できる</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create database データベース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイムゾーンの設定</t>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://tt-computing.com/maria10_4-win-timezone</t>
+  </si>
+  <si>
+    <t>select * from mysql.time_zone;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下のSQLで結果が空だった場合は設定が必要</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒツヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -477,7 +1815,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -511,6 +1849,30 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -520,12 +1882,129 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -537,7 +2016,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -551,6 +2030,54 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1643,17 +3170,882 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>14726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>130418</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="図 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65A2DDBB-C599-44CB-B7E6-352FD422C728}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="243840" y="3215126"/>
+          <a:ext cx="10127858" cy="5928874"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02068351-1A40-4885-9039-4B3D48C64CFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="716280" y="7132320"/>
+          <a:ext cx="7604760" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>46168</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>114528</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="図 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47650357-A798-4DF1-99DA-E070132BE527}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="243840" y="9829800"/>
+          <a:ext cx="5166808" cy="2629128"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>198602</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>145248</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="図 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C4C0574-E862-46F9-9F4A-6AD428465CA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="487680" y="16002000"/>
+          <a:ext cx="5563082" cy="5403048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>152984</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>137489</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="図 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA6CF383-189C-40BF-8B39-439DAB405697}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="487680" y="20574000"/>
+          <a:ext cx="6736664" cy="3795089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8B3DADF-BDF6-4343-BF98-28A16B68C791}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1859280" y="16459200"/>
+          <a:ext cx="3101340" cy="1348740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFD516FE-1035-4130-B7B6-7FF3B597914B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1844040" y="17807940"/>
+          <a:ext cx="3131820" cy="1729740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="正方形/長方形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4B1EC06-B179-4E03-BE6D-2C94BAB2A7DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1303020" y="20939760"/>
+          <a:ext cx="1524000" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="正方形/長方形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DC6E340-48A3-457F-AFD5-F3E4695CC151}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3764280" y="21945600"/>
+          <a:ext cx="464820" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228852</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>193965</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="図 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F7DF2DB-6409-4336-9938-B401AEF351CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="487680" y="25831800"/>
+          <a:ext cx="2911092" cy="651165"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>160710</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>61183</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="図 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAF78FCB-200D-4ECF-80CA-691AD78A171C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="487680" y="26746200"/>
+          <a:ext cx="7963590" cy="2575783"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>31032</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>160093</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C86E55B1-D4CF-447D-95AD-366324E306D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="243840" y="9144000"/>
+          <a:ext cx="6370872" cy="845893"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>402</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>99366</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1E1D37F-6B5F-45AC-9B08-24971BFB3AB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="243840" y="3200400"/>
+          <a:ext cx="4633362" cy="3528366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>182836</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>84060</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="図 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86E60C20-97B1-464A-956B-49DD1DC271E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="243840" y="3154636"/>
+          <a:ext cx="2766300" cy="502964"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1661,7 +4053,7 @@
         <xdr:cNvPr id="2" name="四角形: 1 つの角を切り取る 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D052220-B4F1-424B-948E-89F4F158AEC5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C43F8DC9-0754-4FC9-A801-8C295673234A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1669,7 +4061,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3840480" y="11887200"/>
+          <a:off x="2865120" y="14630400"/>
           <a:ext cx="7178040" cy="3063240"/>
         </a:xfrm>
         <a:prstGeom prst="snip1Rect">
@@ -1721,22 +4113,181 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="直線矢印コネクタ 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4581FBF-B360-43A2-AB3B-F5E0DB787C6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3863340" y="14798040"/>
+          <a:ext cx="3649980" cy="975360"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>198122</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直線矢印コネクタ 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1290AD8C-7FEC-45E2-A4CD-F854118610E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3855722" y="15979140"/>
+          <a:ext cx="3688078" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="直線矢印コネクタ 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC91BDE4-21DB-49F8-BD0A-554A435FCACA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3764280" y="16131540"/>
+          <a:ext cx="3756660" cy="853440"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{837B295A-D1CC-44D2-A56E-BEDC43D96CEC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{816C012D-454F-4B52-8F9A-85BAC99F773F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1744,7 +4295,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4739640" y="12131040"/>
+          <a:off x="4297680" y="5173980"/>
           <a:ext cx="1219200" cy="716280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1788,13 +4339,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1802,7 +4353,7 @@
         <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5964245-C2B3-48A1-A784-6753C51FA718}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{324AA92C-DF16-45FE-8DE1-6240392557D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1824,7 +4375,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8755380" y="12603480"/>
+          <a:off x="7780020" y="15346680"/>
           <a:ext cx="1478280" cy="1478280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1838,13 +4389,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>220980</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1852,7 +4403,7 @@
         <xdr:cNvPr id="5" name="四角形: 1 つの角を切り取る 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6D1F18B-D913-472F-84AD-B9BD107A4DDB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF99E5D0-2336-4A92-A45E-41CE9971E65B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1860,7 +4411,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3832860" y="7993380"/>
+          <a:off x="2857500" y="10736580"/>
           <a:ext cx="7231380" cy="3063240"/>
         </a:xfrm>
         <a:prstGeom prst="snip1Rect">
@@ -1913,13 +4464,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>45721</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>53342</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>129541</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1927,7 +4478,7 @@
         <xdr:cNvPr id="6" name="図 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{997B562F-2DB9-4AFF-814F-177F40EA16DE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD61BE81-B0BE-4CD1-9B68-40F2D3B57E5C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1949,8 +4500,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3947161" y="8077201"/>
-          <a:ext cx="739140" cy="739140"/>
+          <a:off x="2971801" y="10820401"/>
+          <a:ext cx="739141" cy="739140"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1963,13 +4514,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>68581</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1977,7 +4528,7 @@
         <xdr:cNvPr id="7" name="図 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B08A6BD3-760F-42C5-9A4A-82DC8ACF88DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2865BF6-728A-401F-A4D4-511DC0182321}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1999,8 +4550,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3962400" y="9037320"/>
-          <a:ext cx="739140" cy="739140"/>
+          <a:off x="2987040" y="11780520"/>
+          <a:ext cx="739141" cy="739140"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2013,13 +4564,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>205740</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2027,7 +4578,7 @@
         <xdr:cNvPr id="8" name="図 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B586621-E8A3-4B91-983A-6AC76A1E77A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6DD0934-7AE9-4206-9A11-508510EF935E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2049,8 +4600,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3931920" y="9982200"/>
-          <a:ext cx="739140" cy="739140"/>
+          <a:off x="2956560" y="12725400"/>
+          <a:ext cx="739141" cy="739140"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2063,13 +4614,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>72390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>163830</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2077,7 +4628,7 @@
         <xdr:cNvPr id="9" name="正方形/長方形 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC877D17-481B-4A58-9848-8998FA68F8BC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF158995-F3A5-438E-A09C-1B133641199F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2085,7 +4636,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6515100" y="9216390"/>
+          <a:off x="5539740" y="11959590"/>
           <a:ext cx="784860" cy="320040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2130,13 +4681,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2144,7 +4695,7 @@
         <xdr:cNvPr id="10" name="正方形/長方形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{979AA669-4950-4E3D-8CFB-78389E56AB0C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{916EFBDE-E343-4AD5-A723-4BFB9555FA01}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2152,7 +4703,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6515100" y="8282940"/>
+          <a:off x="5539740" y="11026140"/>
           <a:ext cx="784860" cy="320040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2197,13 +4748,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>220980</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2211,7 +4762,7 @@
         <xdr:cNvPr id="11" name="正方形/長方形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFF8FC64-3277-4195-9D57-9AC35506D766}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22AF8F57-45C1-443D-9D2E-2A58E4AA7A6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2219,7 +4770,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6515100" y="10187940"/>
+          <a:off x="5539740" y="12931140"/>
           <a:ext cx="784860" cy="320040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2264,13 +4815,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>53341</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>213360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>217171</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2278,7 +4829,7 @@
         <xdr:cNvPr id="12" name="コネクタ: カギ線 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B40F62F-7BD7-4F29-9205-587AD9BEC69E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6163FE8-0011-4323-8864-8588C5D44087}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2289,7 +4840,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4686301" y="8442960"/>
+          <a:off x="3710941" y="11186160"/>
           <a:ext cx="1828799" cy="3811"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2320,13 +4871,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2334,7 +4885,7 @@
         <xdr:cNvPr id="13" name="コネクタ: カギ線 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{715B2BFD-8125-4947-BA60-1805E89288E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FBEC5BB-9FCC-497B-BA0C-66514A73A236}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2344,7 +4895,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7299960" y="9376410"/>
+          <a:off x="6324600" y="12119610"/>
           <a:ext cx="1127760" cy="41910"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2375,13 +4926,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>34290</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2389,7 +4940,7 @@
         <xdr:cNvPr id="14" name="コネクタ: カギ線 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5EE6703-52F7-4172-90AB-10E90C9907DE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB15F804-32A9-4133-990C-0B0764EE7F78}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2400,7 +4951,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4701540" y="9376410"/>
+          <a:off x="3726180" y="12119610"/>
           <a:ext cx="1813560" cy="30480"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2431,13 +4982,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>64770</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2445,7 +4996,7 @@
         <xdr:cNvPr id="15" name="コネクタ: カギ線 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86DA8DAE-F12F-4228-B652-220ECD2EA224}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96027490-74A5-42F3-A70B-6B3CF7744B98}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2456,7 +5007,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4671060" y="10347960"/>
+          <a:off x="3695700" y="13091160"/>
           <a:ext cx="1844040" cy="3810"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2487,13 +5038,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>213360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2501,7 +5052,7 @@
         <xdr:cNvPr id="16" name="コネクタ: カギ線 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D71F4D9B-EEAD-42F9-AF73-3FA016B5E68D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7C7518E-2D7A-4BDC-A593-E1A821CBD0AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2511,7 +5062,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7299960" y="10043160"/>
+          <a:off x="6324600" y="12786360"/>
           <a:ext cx="1135380" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2542,13 +5093,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>213360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2556,7 +5107,7 @@
         <xdr:cNvPr id="17" name="コネクタ: カギ線 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A13D072-0B81-49B6-9DD7-D00DFC80B730}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98AD5566-65F8-41DB-93B5-1138A5665429}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2566,7 +5117,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7299960" y="8442960"/>
+          <a:off x="6324600" y="11186160"/>
           <a:ext cx="1188720" cy="480060"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2597,13 +5148,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2611,7 +5162,7 @@
         <xdr:cNvPr id="18" name="楕円 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8417BD90-C15D-4210-9D54-74B459CDBA66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87D91CE7-A345-409D-814D-AC91B959D81F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2619,7 +5170,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6583680" y="8176260"/>
+          <a:off x="5608320" y="10919460"/>
           <a:ext cx="662940" cy="510540"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -2667,13 +5218,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2681,7 +5232,7 @@
         <xdr:cNvPr id="19" name="楕円 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1C68946-D7EC-48F6-B7B5-8B639327AAA4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D621B5D0-7702-4E3B-8861-7D0D4C131707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2689,7 +5240,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6583680" y="9098280"/>
+          <a:off x="5608320" y="11841480"/>
           <a:ext cx="662940" cy="510540"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -2737,13 +5288,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2751,7 +5302,7 @@
         <xdr:cNvPr id="20" name="楕円 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8441EAC7-A198-4ACD-A872-DB0553563B7A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ED9BB4D-309D-4233-9B5F-8ED4022C185A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2759,7 +5310,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6583680" y="10088880"/>
+          <a:off x="5608320" y="12832080"/>
           <a:ext cx="662940" cy="510540"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -2807,13 +5358,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>53341</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>83821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>60962</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>137161</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2821,7 +5372,7 @@
         <xdr:cNvPr id="21" name="図 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5006DAB-68B3-42E6-BAA8-CD315555C03C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BD58577-3A2F-4354-8895-0D63989F196E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2843,8 +5394,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3954781" y="11971021"/>
-          <a:ext cx="739140" cy="739140"/>
+          <a:off x="2979421" y="14714221"/>
+          <a:ext cx="739141" cy="739140"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2857,13 +5408,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2871,7 +5422,7 @@
         <xdr:cNvPr id="22" name="図 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF2D89DE-A222-429D-966E-A7F8AA91A5D7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC85F503-CD0C-41D0-B353-E2A4DE161D53}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2893,8 +5444,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3970020" y="12931140"/>
-          <a:ext cx="739140" cy="739140"/>
+          <a:off x="2994660" y="15674340"/>
+          <a:ext cx="739141" cy="739140"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2907,13 +5458,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>45721</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>213360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2921,7 +5472,7 @@
         <xdr:cNvPr id="23" name="図 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AB94B3D-B7AF-40CE-A85C-0A708EC8CC88}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B1D09C1-87C6-4A40-B871-9FA3B22E057D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2943,8 +5494,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3939540" y="13876020"/>
-          <a:ext cx="739140" cy="739140"/>
+          <a:off x="2964180" y="16619220"/>
+          <a:ext cx="739141" cy="739140"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2957,13 +5508,13 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>213360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>39405</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2971,7 +5522,7 @@
         <xdr:cNvPr id="24" name="図 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34D2D6FF-6892-48FC-9476-78F3AF44CB41}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BBFC970-B42E-430D-A570-CA73D3368B2D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2993,7 +5544,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10218420" y="13700760"/>
+          <a:off x="9243060" y="16443960"/>
           <a:ext cx="306105" cy="388620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3005,23 +5556,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="25" name="テキスト ボックス 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{107C4324-CC4B-46BC-8C33-71D77A04F55B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{280F1EE2-5630-4982-8CAA-1C21036F4131}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3029,7 +5580,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4815840" y="12473940"/>
+          <a:off x="4373880" y="5516880"/>
           <a:ext cx="1051560" cy="281940"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3082,13 +5633,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>91439</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>51162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>9796</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>165462</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3096,7 +5647,7 @@
         <xdr:cNvPr id="26" name="吹き出し: 角を丸めた四角形 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDF03596-E2D6-420E-AB8D-49AC6213B9BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96E480A4-E6CC-4629-A28C-73E45EB39DDF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3104,7 +5655,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1310639" y="12624162"/>
+          <a:off x="335279" y="15367362"/>
           <a:ext cx="2356757" cy="1485900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
@@ -3207,13 +5758,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3221,7 +5772,7 @@
         <xdr:cNvPr id="27" name="四角形: 1 つの角を切り取る 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEA076EF-E29E-48DD-A749-66E1ADF738F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A4D9D24-1D70-4C36-B409-331662E0AB73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3229,7 +5780,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3840480" y="15544800"/>
+          <a:off x="2865120" y="18516600"/>
           <a:ext cx="7139940" cy="3063240"/>
         </a:xfrm>
         <a:prstGeom prst="snip1Rect">
@@ -3282,13 +5833,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>53341</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>83821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>60962</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>137161</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3296,7 +5847,7 @@
         <xdr:cNvPr id="28" name="図 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CC3F3D8-C6DD-4079-AE00-95FDBD7AA00F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA094D97-B020-4AD7-B443-18A84AEA6D05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3318,8 +5869,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3954781" y="15628621"/>
-          <a:ext cx="739140" cy="739140"/>
+          <a:off x="2979421" y="18600421"/>
+          <a:ext cx="739141" cy="739140"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3332,13 +5883,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3346,7 +5897,7 @@
         <xdr:cNvPr id="29" name="図 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3FA45ED-CDF4-413F-B8E2-26A8ED0ECC1F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9B90C29-F7BE-4649-AEF9-570ABD657CAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3368,8 +5919,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3970020" y="16588740"/>
-          <a:ext cx="739140" cy="739140"/>
+          <a:off x="2994660" y="19560540"/>
+          <a:ext cx="739141" cy="739140"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3382,13 +5933,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>45721</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>213360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3396,7 +5947,7 @@
         <xdr:cNvPr id="30" name="図 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{152F2183-151E-42C7-820C-31805F0844EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{438D30E1-B50A-4547-8668-AF4DCD80A697}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3418,8 +5969,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3939540" y="17533620"/>
-          <a:ext cx="739140" cy="739140"/>
+          <a:off x="2964180" y="20505420"/>
+          <a:ext cx="739141" cy="739140"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3432,13 +5983,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3446,7 +5997,7 @@
         <xdr:cNvPr id="31" name="コネクタ: カギ線 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00144794-59F3-40C5-96B0-96E9854A2101}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{749486F7-AC61-42C2-BD48-6928D58C0E2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3454,7 +6005,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4907280" y="16984980"/>
+          <a:off x="3931920" y="19956780"/>
           <a:ext cx="3680460" cy="106680"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3485,13 +6036,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3499,7 +6050,7 @@
         <xdr:cNvPr id="32" name="コネクタ: カギ線 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EC09F30-7741-4084-A578-589B37A51DEF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D95B7131-EB6F-4195-8656-21BECAEF4EFA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3507,7 +6058,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4785360" y="17701260"/>
+          <a:off x="3810000" y="20673060"/>
           <a:ext cx="3810000" cy="205740"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3538,13 +6089,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3552,7 +6103,7 @@
         <xdr:cNvPr id="33" name="コネクタ: カギ線 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{304B8607-EB55-46B0-BDA9-B8C613FC8C41}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0A5AC52-F480-487A-8F96-845B08B61466}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3560,7 +6111,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4831080" y="16017240"/>
+          <a:off x="3855720" y="18989040"/>
           <a:ext cx="3802380" cy="449580"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3591,13 +6142,13 @@
     <xdr:from>
       <xdr:col>41</xdr:col>
       <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3605,7 +6156,7 @@
         <xdr:cNvPr id="34" name="吹き出し: 角を丸めた四角形 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBFB3AA7-4530-4D8C-A808-9D209A2FDCDE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DB414B1-A220-47B8-B3D3-D2234397B7A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3613,8 +6164,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11209020" y="13716000"/>
-          <a:ext cx="2804160" cy="1485900"/>
+          <a:off x="10233660" y="16459200"/>
+          <a:ext cx="2804160" cy="1714500"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3710,13 +6261,13 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3724,7 +6275,7 @@
         <xdr:cNvPr id="35" name="テキスト ボックス 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{041A0B7F-4C41-45F0-A572-9243C2F3EEED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03284A74-7068-4ED4-9F3F-C2ED9A6A9B2D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3732,7 +6283,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10187940" y="14112240"/>
+          <a:off x="9212580" y="16855440"/>
           <a:ext cx="640080" cy="175260"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3781,13 +6332,13 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>8925</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>198120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3795,7 +6346,7 @@
         <xdr:cNvPr id="36" name="図 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CDC2BBE-07E1-4313-A9CC-49B10BCBE1E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ACDA0D9-1D9A-4CA7-AE47-EDC596906FA2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3817,7 +6368,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10187940" y="13068300"/>
+          <a:off x="9212580" y="15811500"/>
           <a:ext cx="306105" cy="388620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3831,13 +6382,13 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>205740</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3845,7 +6396,7 @@
         <xdr:cNvPr id="37" name="テキスト ボックス 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{056D7787-47E2-4C11-B9B4-05BCC8589A24}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3E944C0-6A6C-4CDF-B31C-C47207282DAB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3853,7 +6404,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10187940" y="13464540"/>
+          <a:off x="9212580" y="16207740"/>
           <a:ext cx="640080" cy="175260"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3902,13 +6453,13 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>237525</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3916,7 +6467,7 @@
         <xdr:cNvPr id="38" name="図 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EEB0BF5-1459-43B4-A3C2-098F6E27250A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4068A15-7662-4FCC-8842-54D62EB4EF19}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3938,7 +6489,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10172700" y="12451080"/>
+          <a:off x="9197340" y="15194280"/>
           <a:ext cx="306105" cy="388620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3952,13 +6503,13 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3966,7 +6517,7 @@
         <xdr:cNvPr id="39" name="テキスト ボックス 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4367B28-AE7F-4B88-93D5-2D84071AD088}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47F08BAB-E44C-4F2E-9B8D-1922485EF8F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3974,7 +6525,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10180320" y="12862560"/>
+          <a:off x="9204960" y="15605760"/>
           <a:ext cx="640080" cy="175260"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4023,13 +6574,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4037,7 +6588,7 @@
         <xdr:cNvPr id="40" name="図 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7453364-A90C-417F-8FAE-01EEAAD82227}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73863AA3-B24A-4B9C-95DD-E98F82FDFF26}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4059,7 +6610,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8793480" y="16360140"/>
+          <a:off x="7818120" y="19331940"/>
           <a:ext cx="1478280" cy="1478280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4073,13 +6624,13 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>77505</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4087,7 +6638,7 @@
         <xdr:cNvPr id="41" name="図 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B56F2809-D066-4308-A41C-B882E2AE5062}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B979D9D-10CA-4B0D-A712-DAA2E3B79E6C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4109,7 +6660,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10256520" y="17457420"/>
+          <a:off x="9281160" y="20429220"/>
           <a:ext cx="306105" cy="388620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4123,13 +6674,13 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>213360</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4137,7 +6688,7 @@
         <xdr:cNvPr id="42" name="テキスト ボックス 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5656E33D-2A79-41A4-9D7C-1287FEB1DF92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0246EAD9-7D61-4CD9-AFCA-011EA452F888}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4145,7 +6696,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10226040" y="17868900"/>
+          <a:off x="9250680" y="20840700"/>
           <a:ext cx="640080" cy="175260"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4194,13 +6745,13 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>47025</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4208,7 +6759,7 @@
         <xdr:cNvPr id="43" name="図 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80459B96-72AA-4E15-9C8F-D80FAB7C24BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BCB232F-6D4F-4744-B7B7-7B74FBD5093D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4230,7 +6781,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10226040" y="16824960"/>
+          <a:off x="9250680" y="19796760"/>
           <a:ext cx="306105" cy="388620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4244,13 +6795,13 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4258,7 +6809,7 @@
         <xdr:cNvPr id="44" name="テキスト ボックス 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF41B6AA-5846-4B31-9D1D-9B3D1F3BAB8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA236FC4-8ECF-4A40-BDE3-FFA87FCF70E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4266,7 +6817,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10226040" y="17221200"/>
+          <a:off x="9250680" y="20193000"/>
           <a:ext cx="640080" cy="175260"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4315,13 +6866,13 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>205740</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>31785</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4329,7 +6880,7 @@
         <xdr:cNvPr id="45" name="図 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CC62CDF-A3AA-4992-9EE1-35F77B69774D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC601054-502F-4983-8F6D-5416BD75D8AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4351,7 +6902,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10210800" y="16207740"/>
+          <a:off x="9235440" y="19179540"/>
           <a:ext cx="306105" cy="388620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4365,13 +6916,13 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4379,7 +6930,7 @@
         <xdr:cNvPr id="46" name="テキスト ボックス 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AAF9AE8-3BF5-45AD-9F82-6F49E635E54F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F2FE22B-B9BF-471B-9759-14B2E1F5606F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4387,7 +6938,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10218420" y="16619220"/>
+          <a:off x="9243060" y="19591020"/>
           <a:ext cx="640080" cy="175260"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4436,13 +6987,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4450,7 +7001,7 @@
         <xdr:cNvPr id="47" name="図 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D33944F2-FFEA-420C-9B3B-F8DDBC7F8BBA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4D45B7E-B599-4478-BCA3-395C05D333CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4472,7 +7023,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8663940" y="8717280"/>
+          <a:off x="7688580" y="11460480"/>
           <a:ext cx="1478280" cy="1478280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4486,13 +7037,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>2177</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4500,7 +7051,7 @@
         <xdr:cNvPr id="48" name="吹き出し: 角を丸めた四角形 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B7E0821-85C3-4F8E-8A7E-A5833129A260}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B13F513-8019-451B-9A87-6E7C17040823}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4508,7 +7059,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1303020" y="16192500"/>
+          <a:off x="327660" y="19164300"/>
           <a:ext cx="2356757" cy="1485900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
@@ -4583,76 +7134,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="49" name="直線矢印コネクタ 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3FE72B0-90AF-4556-9EE8-DB7EBB393E4A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="4838700" y="12054840"/>
-          <a:ext cx="3649980" cy="975360"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>220980</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="50" name="正方形/長方形 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9B7ACFB-E186-4B48-AB4F-7D31A1714542}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2086DD1-5C2F-4A37-9C59-A04A58B6253E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4660,7 +7158,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4808220" y="12992100"/>
+          <a:off x="4366260" y="6035040"/>
           <a:ext cx="1219200" cy="716280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4702,23 +7200,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="51" name="テキスト ボックス 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD24B907-F952-410D-85C6-C0945D6DF282}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{681551FE-765A-4885-AF94-8E64D2557A9A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4726,7 +7224,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4884420" y="13335000"/>
+          <a:off x="4442460" y="6377940"/>
           <a:ext cx="1051560" cy="281940"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4777,76 +7275,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>198122</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>205740</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="52" name="直線矢印コネクタ 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{160C2886-2FCB-4482-907E-D7405F5D1527}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4831082" y="13235940"/>
-          <a:ext cx="3688078" cy="38100"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="53" name="正方形/長方形 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCA05E46-0128-4539-ACD2-69A1AFA3D59F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A172B48D-3237-44C3-9563-7E693F390C85}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4854,7 +7299,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4815840" y="13868400"/>
+          <a:off x="4373880" y="6911340"/>
           <a:ext cx="1219200" cy="716280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4896,23 +7341,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="54" name="テキスト ボックス 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94F3C4B0-1CC4-43F3-8057-F7EAA3A3FE70}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FA2AACC-F76D-4258-B633-D1B46CA28B0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4920,7 +7365,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4892040" y="14211300"/>
+          <a:off x="4450080" y="7254240"/>
           <a:ext cx="1051560" cy="281940"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4971,68 +7416,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="55" name="直線矢印コネクタ 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4893DFBE-E688-4975-A87D-B96E11E46FB6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4739640" y="13388340"/>
-          <a:ext cx="3756660" cy="853440"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5040,7 +7432,7 @@
         <xdr:cNvPr id="56" name="正方形/長方形 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39F9F629-BBAA-440A-BF6C-9AF1F94B7545}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DE7C4B9-0D74-4E47-9C8B-C6F5307E0695}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5048,7 +7440,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6690360" y="15788640"/>
+          <a:off x="5715000" y="18760440"/>
           <a:ext cx="1219200" cy="716280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5092,13 +7484,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5106,7 +7498,7 @@
         <xdr:cNvPr id="57" name="テキスト ボックス 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC5CB9FA-21D5-45AB-ABB7-7699EB53C711}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{622A76E3-7C7D-4605-BF82-B968A539DCAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5114,7 +7506,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6766560" y="16131540"/>
+          <a:off x="5791200" y="19103340"/>
           <a:ext cx="1051560" cy="281940"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5167,13 +7559,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>220980</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5181,7 +7573,7 @@
         <xdr:cNvPr id="58" name="正方形/長方形 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78AC1F6A-CE7E-4EC7-8C38-99A50A79288E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B66CDC25-4BFB-45B7-9010-4788AB8042AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5189,7 +7581,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6758940" y="16649700"/>
+          <a:off x="5783580" y="19621500"/>
           <a:ext cx="1219200" cy="716280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5233,13 +7625,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5247,7 +7639,7 @@
         <xdr:cNvPr id="59" name="テキスト ボックス 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDC6207B-474A-432C-9EE0-DD63E598C400}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F71662EB-3BEA-40D6-9F06-B862595186FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5255,7 +7647,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6835140" y="16992600"/>
+          <a:off x="5859780" y="19964400"/>
           <a:ext cx="1051560" cy="281940"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5308,13 +7700,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5322,7 +7714,7 @@
         <xdr:cNvPr id="60" name="正方形/長方形 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F34BB8D-9149-45A1-B5FB-F739E4FF5961}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ED72145-D82A-473F-8494-504B22CF50A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5330,7 +7722,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6766560" y="17526000"/>
+          <a:off x="5791200" y="20497800"/>
           <a:ext cx="1219200" cy="716280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5374,13 +7766,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5388,7 +7780,7 @@
         <xdr:cNvPr id="61" name="テキスト ボックス 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BE58E5D-3629-4C90-B59F-4BB32A90D51D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59A2963C-1089-4F48-B252-C67758FC46D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5396,7 +7788,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6842760" y="17868900"/>
+          <a:off x="5867400" y="20840700"/>
           <a:ext cx="1051560" cy="281940"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5449,21 +7841,21 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="矢印: 下 65">
+        <xdr:cNvPr id="62" name="矢印: 下 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78A61C82-65FF-4CE9-9643-10A19EB87544}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9157ADFF-BA34-470C-8030-F8514773A9C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5471,8 +7863,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5547360" y="12726093"/>
-          <a:ext cx="1564871" cy="524394"/>
+          <a:off x="5425440" y="17838420"/>
+          <a:ext cx="1531620" cy="510540"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -5521,21 +7913,21 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>129541</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="矢印: 下 66">
+        <xdr:cNvPr id="63" name="矢印: 下 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E275FCC6-BB36-4B06-9051-4653FC80AE07}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{133F602D-9E2B-450D-881A-FFBDDDBC50C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5543,8 +7935,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5329646" y="3657600"/>
-          <a:ext cx="1505495" cy="510540"/>
+          <a:off x="5425440" y="13944600"/>
+          <a:ext cx="1531621" cy="510540"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -5593,21 +7985,21 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>144087</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="四角形: 1 つの角を切り取る 67">
+        <xdr:cNvPr id="64" name="四角形: 1 つの角を切り取る 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80200D42-3114-4CF7-AD5E-E1B2E5908812}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1444D347-D52B-4487-B43F-2D6C91EA39C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5615,8 +8007,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2880360" y="17337578"/>
-          <a:ext cx="7344295" cy="3153295"/>
+          <a:off x="2819400" y="22318287"/>
+          <a:ext cx="7178040" cy="3056313"/>
         </a:xfrm>
         <a:prstGeom prst="snip1Rect">
           <a:avLst/>
@@ -5668,21 +8060,21 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>29787</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>60267</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="正方形/長方形 68">
+        <xdr:cNvPr id="65" name="正方形/長方形 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74743480-F7CF-4E59-911C-97D53B0EBDD9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B67E2A3-4446-4A33-ACCA-55856BC424B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5690,7 +8082,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1630680" y="16946187"/>
+          <a:off x="1630680" y="22432587"/>
           <a:ext cx="1219200" cy="716280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5734,21 +8126,21 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>174567</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>52647</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="70" name="図 69">
+        <xdr:cNvPr id="66" name="図 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A68D8217-1713-4CF0-98C9-540E0968D2C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B461AE56-BAD0-4441-8447-DAF7691DA0EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5770,8 +8162,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7906096" y="18074640"/>
-          <a:ext cx="1511531" cy="1526771"/>
+          <a:off x="7734300" y="23034567"/>
+          <a:ext cx="1478280" cy="1478280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5784,21 +8176,21 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>7621</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>227908</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>15242</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>52648</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="71" name="図 70">
+        <xdr:cNvPr id="67" name="図 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E2A1D69-08D1-4DCF-AD17-EDB7D06DAD51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{809FE050-7DCE-43A0-8086-918F28D510E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5820,8 +8212,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3000203" y="17421399"/>
-          <a:ext cx="755766" cy="766849"/>
+          <a:off x="2933701" y="22402108"/>
+          <a:ext cx="739141" cy="739140"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5834,21 +8226,21 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>45028</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>30481</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>98367</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="72" name="図 71">
+        <xdr:cNvPr id="68" name="図 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{487A0FA9-86AB-4FBB-A510-C1D4EA258EDB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE5069E6-8D02-4781-BB37-A504281F04F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5870,8 +8262,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3015442" y="18416155"/>
-          <a:ext cx="755766" cy="759921"/>
+          <a:off x="2948940" y="23362228"/>
+          <a:ext cx="739141" cy="739139"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5884,21 +8276,21 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>241762</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>75508</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>128847</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="73" name="図 72">
+        <xdr:cNvPr id="69" name="図 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C83D709B-FE85-4D0F-A918-FFAC4345B777}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B6B37E6-3463-4527-8ED7-FEA278054CA4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5920,8 +8312,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2984962" y="19388744"/>
-          <a:ext cx="755766" cy="759921"/>
+          <a:off x="2924002" y="24307108"/>
+          <a:ext cx="733599" cy="739139"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5934,21 +8326,21 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>128847</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>243067</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>60267</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="74" name="図 73">
+        <xdr:cNvPr id="70" name="図 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D73FE31C-43DC-4919-9C4D-5D9DC2C7F91A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52C5CBE8-2CAB-487A-B35E-D1B3521FB015}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5970,8 +8362,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9402387" y="19206556"/>
-          <a:ext cx="317189" cy="402475"/>
+          <a:off x="9197340" y="24131847"/>
+          <a:ext cx="311647" cy="388620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5984,21 +8376,21 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>144087</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>197427</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="75" name="テキスト ボックス 74">
+        <xdr:cNvPr id="71" name="テキスト ボックス 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B675F3B8-4EEE-4346-AD9C-1191BF104922}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A296A524-3FDD-4782-92F3-6FA004E167A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6006,7 +8398,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1706880" y="17289087"/>
+          <a:off x="1706880" y="22775487"/>
           <a:ext cx="1051560" cy="281940"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6059,21 +8451,21 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>83127</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="テキスト ボックス 75">
+        <xdr:cNvPr id="72" name="テキスト ボックス 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6357442-B759-4737-88CE-F77817F87F49}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85E0B1C2-236E-468F-A07E-D211EC3AD599}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6081,8 +8473,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9371907" y="19631891"/>
-          <a:ext cx="656706" cy="175260"/>
+          <a:off x="9166860" y="24543327"/>
+          <a:ext cx="640080" cy="168333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6130,21 +8522,21 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>182188</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>207045</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>113607</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="77" name="図 76">
+        <xdr:cNvPr id="73" name="図 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{548BFDCF-5F31-423B-8B28-9E576BC06191}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AD99540-77F5-4D2B-97C6-CE65EDD279CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6166,8 +8558,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9371907" y="18553315"/>
-          <a:ext cx="311647" cy="402474"/>
+          <a:off x="9166860" y="23499388"/>
+          <a:ext cx="306105" cy="388619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6180,21 +8572,21 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>121227</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>67887</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="78" name="テキスト ボックス 77">
+        <xdr:cNvPr id="74" name="テキスト ボックス 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB348FE6-FE7B-4D80-B22A-68EC4372D9DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{326A3B9D-669C-4E1D-A2F8-76F5FDA70FB9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6202,8 +8594,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9371907" y="18963409"/>
-          <a:ext cx="656706" cy="182187"/>
+          <a:off x="9166860" y="23895627"/>
+          <a:ext cx="640080" cy="175260"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6251,21 +8643,21 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>191805</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>182187</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="79" name="図 78">
+        <xdr:cNvPr id="75" name="図 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0421215C-54F4-469C-AA93-657803CC8ABA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EC62E9C-8235-4026-B291-905DF68D1E90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6287,8 +8679,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9356667" y="17915313"/>
-          <a:ext cx="311647" cy="402474"/>
+          <a:off x="9151620" y="22875240"/>
+          <a:ext cx="306105" cy="395547"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6301,21 +8693,21 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>205047</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>151708</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="80" name="テキスト ボックス 79">
+        <xdr:cNvPr id="76" name="テキスト ボックス 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4670D35-674F-42C8-B244-4D9B5914311A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DFA7DDC-2D0A-4A27-845E-BF5E1018362B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6323,8 +8715,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9364287" y="18340647"/>
-          <a:ext cx="656706" cy="182188"/>
+          <a:off x="9159240" y="23293647"/>
+          <a:ext cx="640080" cy="175261"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6372,21 +8764,21 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>83127</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>144088</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="81" name="直線矢印コネクタ 80">
+        <xdr:cNvPr id="77" name="直線矢印コネクタ 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1A2C8C7-33D4-4F8E-9B77-4F33B35AAEE7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{675DA6A9-B758-4890-8E80-0BBDFE062BAB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6394,8 +8786,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="3900747" y="17512145"/>
-          <a:ext cx="3733108" cy="1003070"/>
+          <a:off x="3817620" y="22485927"/>
+          <a:ext cx="3649980" cy="975361"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6425,21 +8817,21 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>205048</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>6927</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="82" name="正方形/長方形 81">
+        <xdr:cNvPr id="78" name="正方形/長方形 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51F891FF-881B-47C3-9D68-63964AD111CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E225C86E-D1F7-41CA-B053-CA83C625A53E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6447,7 +8839,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1699260" y="17807248"/>
+          <a:off x="1699260" y="23293648"/>
           <a:ext cx="1219200" cy="716279"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6491,21 +8883,21 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>90747</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>144087</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="83" name="テキスト ボックス 82">
+        <xdr:cNvPr id="79" name="テキスト ボックス 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BF16202-79EB-48A8-B03A-D17726CE6256}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78D96703-D62F-4471-A8B6-4C79FB844F82}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6513,7 +8905,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1775460" y="18150147"/>
+          <a:off x="1775460" y="23636547"/>
           <a:ext cx="1051560" cy="281940"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6566,21 +8958,21 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>152402</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>121227</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>159327</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="84" name="直線矢印コネクタ 83">
+        <xdr:cNvPr id="80" name="直線矢印コネクタ 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ABB0229-B2DC-4479-B879-13AF58EF1EDF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D0BC18F-4DDD-443D-BAEF-D2A9B6C18C30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6588,8 +8980,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3893129" y="18727882"/>
-          <a:ext cx="3771206" cy="38100"/>
+          <a:off x="3810002" y="23667027"/>
+          <a:ext cx="3688078" cy="38100"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6619,21 +9011,21 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>166948</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>197427</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="85" name="正方形/長方形 84">
+        <xdr:cNvPr id="81" name="正方形/長方形 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66064FA4-B8A9-4700-A610-B65B65E5A2E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EE45797-62C9-4891-90B1-B2EB0D9D6AE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6641,7 +9033,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1706880" y="18683548"/>
+          <a:off x="1706880" y="24169948"/>
           <a:ext cx="1219200" cy="716279"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6685,21 +9077,21 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>52647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="86" name="テキスト ボックス 85">
+        <xdr:cNvPr id="82" name="テキスト ボックス 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBAEEDB7-0B9C-493E-A3CD-2F9E2F81A314}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A134C090-8385-41D4-A2A1-81BDEF4048FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6707,7 +9099,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1783080" y="19026447"/>
+          <a:off x="1783080" y="24512847"/>
           <a:ext cx="1051560" cy="275013"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6760,21 +9152,21 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>45027</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>212667</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="87" name="直線矢印コネクタ 86">
+        <xdr:cNvPr id="83" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{618D6FEF-1C5F-49BE-92B5-5629C90DDEDC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2510B91E-C6AF-49E8-96BC-29F1BCDDD134}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6782,8 +9174,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3801687" y="18887209"/>
-          <a:ext cx="3839788" cy="874222"/>
+          <a:off x="3718560" y="23819427"/>
+          <a:ext cx="3756660" cy="853440"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6813,21 +9205,21 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>180802</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>53339</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="88" name="矢印: 下 87">
+        <xdr:cNvPr id="84" name="矢印: 下 83">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B23E49D-5ABA-4D4D-9FF1-BE767EFAEBDA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3236D965-8411-41C5-A27F-EE47A374C074}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6835,8 +9227,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5667202" y="16722436"/>
-          <a:ext cx="1564871" cy="524394"/>
+          <a:off x="5545282" y="21717000"/>
+          <a:ext cx="1526078" cy="510539"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -6885,21 +9277,21 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="89" name="正方形/長方形 88">
+        <xdr:cNvPr id="85" name="正方形/長方形 84">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E45FCC9-F6A7-4352-98AD-F7367305400F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1133CD48-7A35-4F5C-8F5C-6C2323356316}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6907,7 +9299,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4107180" y="16916400"/>
+          <a:off x="4107180" y="22402800"/>
           <a:ext cx="1219200" cy="716280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6955,21 +9347,21 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="90" name="正方形/長方形 89">
+        <xdr:cNvPr id="86" name="正方形/長方形 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D7DD22C-38CF-4525-A5D3-5D6208D44FDE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D00D91A-D81E-4214-8189-997FDB0A5EAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6977,7 +9369,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4091940" y="17853660"/>
+          <a:off x="4091940" y="23340060"/>
           <a:ext cx="1219200" cy="716280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7025,21 +9417,21 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="91" name="正方形/長方形 90">
+        <xdr:cNvPr id="87" name="正方形/長方形 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3195F1FD-7F52-4A8A-B3DA-57FF110052A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C3F49E8-BCD4-436B-A413-F93933EA6B1E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7047,7 +9439,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4091940" y="18775680"/>
+          <a:off x="4091940" y="24262080"/>
           <a:ext cx="1219200" cy="716280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7095,21 +9487,21 @@
     <xdr:from>
       <xdr:col>42</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>220980</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="92" name="吹き出し: 角を丸めた四角形 91">
+        <xdr:cNvPr id="88" name="吹き出し: 角を丸めた四角形 87">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E04AA33-9F45-4D07-BB15-F2DD22364011}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5A844ED-C4C4-4CDD-8D93-B106A2294CA5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7117,7 +9509,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10279380" y="18851880"/>
+          <a:off x="10279380" y="24338280"/>
           <a:ext cx="2804160" cy="1485900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
@@ -7174,21 +9566,21 @@
     <xdr:from>
       <xdr:col>42</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>54</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="93" name="吹き出し: 角を丸めた四角形 92">
+        <xdr:cNvPr id="89" name="吹き出し: 角を丸めた四角形 88">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00093AFC-34FB-4B59-AE0A-2A0339F6E7B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11D892CD-7581-4255-97B9-E784A74E04EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7196,7 +9588,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10401300" y="14470380"/>
+          <a:off x="10401300" y="19956780"/>
           <a:ext cx="2804160" cy="1485900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
@@ -7264,6 +9656,162 @@
             </a:rPr>
             <a:t>に紐づいたセッションファイルを参照する</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="吹き出し: 四角形 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80194652-B894-4AB9-BB98-796E461FAA7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9060180" y="14577060"/>
+          <a:ext cx="1196340" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -66215"/>
+            <a:gd name="adj2" fmla="val 122940"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>session_start()</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="吹き出し: 四角形 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E09468E7-A26E-4F6C-8A76-32E3B48664CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8953500" y="18600420"/>
+          <a:ext cx="1196340" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -66215"/>
+            <a:gd name="adj2" fmla="val 122940"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>session_start()</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7606,9 +10154,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2012331F-8F8B-475B-BFE6-BE110A42D2BD}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -7617,87 +10165,107 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B14" s="2" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B15" s="2" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B16" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B18" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
-        <v>77</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B22" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B25" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -7706,9 +10274,718 @@
     <hyperlink ref="B2" r:id="rId1" xr:uid="{AB639879-BF6F-48F3-A8F0-BE2F89F21682}"/>
     <hyperlink ref="B13" r:id="rId2" xr:uid="{5B528031-E78C-4EA2-92D3-8A18D3D1811F}"/>
     <hyperlink ref="B19" r:id="rId3" xr:uid="{9C6D24EF-D22B-4A51-AB41-9C719DE935E5}"/>
+    <hyperlink ref="B22" r:id="rId4" xr:uid="{915FE210-7AC3-44C7-80CB-3675C1031BF5}"/>
+    <hyperlink ref="B25" r:id="rId5" xr:uid="{9472D2CD-73EE-4166-9A6F-3EF2A3EB8A6C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C8383D6-672D-4776-ACD6-B4CCFA974FBA}">
+  <dimension ref="A1:M36"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="8" width="3.19921875" style="2"/>
+    <col min="9" max="9" width="3.19921875" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="3.19921875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B2" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B4" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B6" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B7" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="19"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B8" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B11" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B12" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="19"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B14" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B15" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B16" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B18" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B19" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B20" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="16"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B22" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B23" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B24" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B25" s="11"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B26" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B27" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B28" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="16"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B30" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B31" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="10"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B32" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="13"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B33" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="13"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B34" s="11"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="13"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B35" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="13"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B36" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="16"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A6F5E0D-2C8F-4852-8A3D-D4EF3DB60A64}">
+  <dimension ref="B2:H98"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD58" sqref="AD58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="8" width="3.19921875" style="2"/>
+    <col min="9" max="9" width="3.19921875" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="3.19921875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B2" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B5" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C6" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C7" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B12" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C13" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C14" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C15" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C16" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C17" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B19" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C20" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C21" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="F22" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B23" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C24" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B26" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C27" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C28" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C30" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C31" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="13"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C32" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="13"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C33" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="13"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C34" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="13"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C35" s="11"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="13"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C36" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="16"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B38" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C39" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C40" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C42" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B44" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C45" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B47" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C48" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B50" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C51" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B53" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C54" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C55" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C56" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C57" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C58" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C59" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C61" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C62" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C63" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C64" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C66" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C67" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C68" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B76" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C77" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C78" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C79" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C80" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C81" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C83" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C84" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C85" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C86" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C87" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C88" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B90" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C91" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C92" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C93" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C95" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C96" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C97" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C98" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7716,7 +10993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B108357B-A1F5-4042-8C72-A6F9E02B638C}">
   <dimension ref="A1:C225"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A238" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -7725,84 +11002,84 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
@@ -7810,57 +11087,57 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B30" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B42" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A61" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A95" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A120" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B121" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A128" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A202" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A225" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -7872,11 +11149,841 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C4222A-5096-4248-AFA0-DF34DE54F93F}">
+  <dimension ref="A1:AH223"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="AK75" sqref="AK75"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="16384" width="3.19921875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B4" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B5" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A27" s="4"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A37" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B51" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B52" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C53" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C54" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C55" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A56" s="4"/>
+      <c r="D56" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B58" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C59" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C60" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C61" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C62" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B64" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="65" spans="3:26" x14ac:dyDescent="0.45">
+      <c r="C65" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="74" spans="3:26" x14ac:dyDescent="0.45">
+      <c r="Z74" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="80" spans="3:26" x14ac:dyDescent="0.45">
+      <c r="Z80" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="81" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="AH81" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="90" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A90" s="4"/>
+    </row>
+    <row r="91" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A91" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="92" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="C92" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="93" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="C93" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="94" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="C94" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="95" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="C95" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A118" s="4"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A126" s="4"/>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A200" s="4"/>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A223" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{052FB61B-4A13-47A2-8718-3697754A0699}">
+  <dimension ref="C2:AA25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="8" width="3.19921875" style="2"/>
+    <col min="9" max="9" width="3.19921875" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="3.19921875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:27" x14ac:dyDescent="0.45">
+      <c r="C2" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="3:27" x14ac:dyDescent="0.45">
+      <c r="C3" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="3:27" x14ac:dyDescent="0.45">
+      <c r="C4" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="3:27" x14ac:dyDescent="0.45">
+      <c r="C6" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="3:27" x14ac:dyDescent="0.45">
+      <c r="C7" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="3:27" x14ac:dyDescent="0.45">
+      <c r="C9" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="10" spans="3:27" x14ac:dyDescent="0.45">
+      <c r="C10" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="3:27" x14ac:dyDescent="0.45">
+      <c r="C12" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="3:27" x14ac:dyDescent="0.45">
+      <c r="C13" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA13" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="14" spans="3:27" x14ac:dyDescent="0.45">
+      <c r="C14" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AA14" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="16" spans="3:27" x14ac:dyDescent="0.45">
+      <c r="C16" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.45">
+      <c r="C17" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="AA17" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.45">
+      <c r="AA18" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.45">
+      <c r="C19" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="AA19" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.45">
+      <c r="C20" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="AA20" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.45">
+      <c r="C21" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="AA21" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.45">
+      <c r="C22" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="AA22" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.45">
+      <c r="AA23" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.45">
+      <c r="AA24" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.45">
+      <c r="AA25" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C38" r:id="rId1" display="https://packagist.org/" xr:uid="{816EBF88-6E7D-4DEF-8CE1-0C07AB74586C}"/>
+    <hyperlink ref="C22" r:id="rId2" xr:uid="{B9FF6CA4-F37C-4280-A68F-F9B0F1B2A609}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107B029E-ECF5-4676-91C1-C4A29D01E8E9}">
+  <dimension ref="B2:V48"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="8" width="3.19921875" style="2"/>
+    <col min="9" max="9" width="3.19921875" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="3.19921875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B2" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C3" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C4" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B6" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C7" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C8" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B10" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C11" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C12" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B14" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C15" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F16" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C17" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C18" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F19" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F20" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C21" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F22" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C23" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C24" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C26" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B28" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C29" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C31" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C32" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C33" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C35" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C36" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C37" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C38" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C40" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C41" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B43" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C44" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C45" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B47" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="V47" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B48" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{49B83F4C-28CB-4615-B2D2-C3CCF112C754}"/>
+    <hyperlink ref="C41" r:id="rId2" xr:uid="{090C48E0-5745-4C8A-8327-36476F5982C7}"/>
+    <hyperlink ref="C26" r:id="rId3" xr:uid="{C1591E14-6A01-4057-BF41-E66815115049}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865314CD-DD85-4FCF-9EA9-1BB188AB8EA1}">
+  <dimension ref="B2:T45"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="8" width="3.19921875" style="2"/>
+    <col min="9" max="9" width="3.19921875" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="3.19921875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B2" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B4" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B6" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B7" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B8" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B10" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B11" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B13" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B14" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B16" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B17" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C34" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C35" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C36" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C37" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C38" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B40" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C45" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA4960FD-AD13-4AA7-AEB4-A09D87D8B8A2}">
-  <dimension ref="A1:O27"/>
+  <dimension ref="C2:O69"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="16384" width="3.19921875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="D3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="D4" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="D9" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="D10" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="C12" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="D13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="D14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="D15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="D16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="D18" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C20" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="D21" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C23" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="D24" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="D25" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="D27" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="D28" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C65" s="5"/>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C69" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="D18" r:id="rId1" location="htdocs%EF%BC%8F%E3%83%89%E3%82%AD%E3%83%A5%E3%83%A1%E3%83%B3%E3%83%88%E3%83%AB%E3%83%BC%E3%83%88%E3%81%AE%E5%A0%B4%E6%89%80%EF%BC%88OS%E5%88%A5%EF%BC%89" xr:uid="{445A6E4D-51FF-4786-B5D5-1BA7256ABCB8}"/>
+    <hyperlink ref="D28" r:id="rId2" xr:uid="{E66B55DC-06B2-49DD-A94B-2EC18470755F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D74DC7-4010-4617-A974-1E5E9561D7E7}">
+  <dimension ref="A1:M59"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -7886,114 +11993,232 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B2" s="2" t="s">
-        <v>0</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B4" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>7</v>
+      <c r="C4" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B10" s="2" t="s">
-        <v>3</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C8" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C9" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C11" s="2" t="s">
-        <v>1</v>
+      <c r="B11" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C12" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B14" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C15" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C16" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="C17" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="C18" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.45">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C13" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B17" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B19" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.45">
       <c r="C20" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.45">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.45">
       <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.45">
       <c r="C22" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B24" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="O27" s="4"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="C23" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="C24" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="C25" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B27" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="C28" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="C29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M29" s="7"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B31" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="C32" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C33" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B35" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C36" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C37" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B39" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C40" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B42" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C43" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B45" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C46" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B48" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C49" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B51" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B53" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C54" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B56" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C57" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C58" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C59" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="B24" r:id="rId1" location="htdocs%EF%BC%8F%E3%83%89%E3%82%AD%E3%83%A5%E3%83%A1%E3%83%B3%E3%83%88%E3%83%AB%E3%83%BC%E3%83%88%E3%81%AE%E5%A0%B4%E6%89%80%EF%BC%88OS%E5%88%A5%EF%BC%89" xr:uid="{445A6E4D-51FF-4786-B5D5-1BA7256ABCB8}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D74DC7-4010-4617-A974-1E5E9561D7E7}">
-  <dimension ref="A1:C36"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A989A803-F200-457C-8D50-267D686D569A}">
+  <dimension ref="B2:B5"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B36" sqref="B33:B36"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -8001,135 +12226,30 @@
     <col min="1" max="16384" width="3.19921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B2" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C4" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C5" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B7" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C8" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C9" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B11" s="2" t="s">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B4" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B5" s="2" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C12" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C13" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C14" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B16" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C17" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B19" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C20" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C21" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C22" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B24" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C25" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B30" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B31" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B33" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B34" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B35" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B36" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B33" r:id="rId1" xr:uid="{20F4DE1B-9717-4EAD-8796-F6CCE587A873}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{E47392F5-166E-4A1C-BD2D-14EFC70CA8B7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>

--- a/WordPress勉強/WordPress.xlsx
+++ b/WordPress勉強/WordPress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keite\Desktop\ノート\WordPress勉強\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6869EC2-48A4-4130-90DB-39EC9F5CDC6D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EF130A-2675-413F-B696-C329ACEFBB0F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8952" activeTab="3" xr2:uid="{23A547DA-F9B8-4989-9B8D-BFB06737F436}"/>
   </bookViews>
@@ -16,14 +16,15 @@
     <sheet name="リンク" sheetId="22" r:id="rId1"/>
     <sheet name="eclipse環境構築" sheetId="24" r:id="rId2"/>
     <sheet name="vscode環境構築" sheetId="34" r:id="rId3"/>
-    <sheet name="mysql" sheetId="32" r:id="rId4"/>
-    <sheet name="composer" sheetId="30" r:id="rId5"/>
-    <sheet name="cakephp" sheetId="33" r:id="rId6"/>
-    <sheet name="用語" sheetId="23" r:id="rId7"/>
-    <sheet name="セッション" sheetId="25" r:id="rId8"/>
-    <sheet name="セッション (絵)" sheetId="26" r:id="rId9"/>
-    <sheet name="namespase" sheetId="29" r:id="rId10"/>
-    <sheet name="PHP" sheetId="31" r:id="rId11"/>
+    <sheet name="vscode環境構築 (2)" sheetId="35" r:id="rId4"/>
+    <sheet name="mysql" sheetId="32" r:id="rId5"/>
+    <sheet name="composer" sheetId="30" r:id="rId6"/>
+    <sheet name="セッション" sheetId="25" r:id="rId7"/>
+    <sheet name="セッション (絵)" sheetId="26" r:id="rId8"/>
+    <sheet name="namespase" sheetId="29" r:id="rId9"/>
+    <sheet name="PHP" sheetId="31" r:id="rId10"/>
+    <sheet name="用語" sheetId="23" r:id="rId11"/>
+    <sheet name="namespase (2)" sheetId="37" r:id="rId12"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,17 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="309">
-  <si>
-    <t>Webサイトで公開されるHTMLファイルや画像などが置かれる最上位のディレクトリ</t>
-    <rPh sb="26" eb="27">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="30" eb="33">
-      <t>サイジョウイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="515">
   <si>
     <t>ドキュメントルート</t>
   </si>
@@ -64,14 +55,6 @@
   </si>
   <si>
     <t>C:\xampp\htdocs</t>
-  </si>
-  <si>
-    <t>Linux 環境の場合</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Windows XAMPP 環境の場合</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>↓</t>
@@ -1466,274 +1449,6 @@
     <t>composer create-project --prefer-dist cakephp/app test</t>
   </si>
   <si>
-    <t>intl拡張子を有効</t>
-    <rPh sb="4" eb="7">
-      <t>カクチョウシ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ユウコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>php.iniの以下をコメントアウト</t>
-    <rPh sb="8" eb="10">
-      <t>イカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>extension=intl</t>
-  </si>
-  <si>
-    <t>プロジェクト作成</t>
-    <rPh sb="6" eb="8">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・ドキュメントルートで実行</t>
-    <rPh sb="11" eb="13">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>composer create-project --prefer-dist cakephp/app:^3.8 test</t>
-  </si>
-  <si>
-    <t>composer create-project --prefer-dist cakephp/app プロジェクト名</t>
-    <rPh sb="56" eb="57">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bin\cake server -H localhost -p 8000</t>
-  </si>
-  <si>
-    <t>config\app.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Datasourcesの項目を設定</t>
-    <rPh sb="12" eb="14">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・username</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・password</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・database</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・timezone</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>設定ファイルの修正</t>
-    <rPh sb="0" eb="2">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>config\bootstrap.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cakephpサーバー起動</t>
-    <rPh sb="11" eb="13">
-      <t>キドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cakephpサーバー停止</t>
-    <rPh sb="11" eb="13">
-      <t>テイシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ctrl + C</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1. PHP Intelephenseの導入</t>
-    <rPh sb="20" eb="22">
-      <t>ドウニュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2. PHP Debugの導入</t>
-    <rPh sb="13" eb="15">
-      <t>ドウニュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3. デバッグ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C:\xampp\php\ext\</t>
-  </si>
-  <si>
-    <t>xdebugの実行ファイルをダウンロード</t>
-    <rPh sb="7" eb="9">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1. phpinfo()の結果をオールコピー</t>
-    <rPh sb="13" eb="15">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2. https://xdebug.org/wizardに結果を張り付け</t>
-    <rPh sb="29" eb="31">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ハ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3. php_xdebug～.dllをダウンロードし、以下パスに配置</t>
-    <rPh sb="27" eb="29">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ハイチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[XDebug]</t>
-  </si>
-  <si>
-    <t>zend_extension="C:\xampp\php\ext\php_xdebug-2.9.8-7.4-vc15-x86_64.dll"</t>
-  </si>
-  <si>
-    <t>xdebug.remote_enable=1</t>
-  </si>
-  <si>
-    <t>xdebug.remote_autostart=1</t>
-  </si>
-  <si>
-    <t>php.iniに以下を追記</t>
-    <rPh sb="8" eb="10">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ツイキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>launch.jsonの作成</t>
-    <rPh sb="12" eb="14">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>デバッグ→歯車クリックで作成される</t>
-    <rPh sb="5" eb="7">
-      <t>ハグルマ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Listen for Xdebug → ブラウザでデバッグ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Launch currently open script → CLIでデバッグ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サーバ立ち上げずにデバッグできる</t>
-    <rPh sb="3" eb="4">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1. サーバー起動</t>
-    <rPh sb="7" eb="9">
-      <t>キドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2. ブレイクポイントの設置</t>
-    <rPh sb="12" eb="14">
-      <t>セッチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3. Listen for Xdebugで起動</t>
-    <rPh sb="21" eb="23">
-      <t>キドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4. ブラウザにアクセス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>下記の手順は全てvscodeでPHP Debugを表示させたものを移しただけ</t>
-    <rPh sb="0" eb="2">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ウツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>select version()</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1807,6 +1522,1827 @@
     </rPh>
     <rPh sb="20" eb="22">
       <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PHP Intelephense</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XAMP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Xdebug</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PHP Debug</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>php_xdebug.dll</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.vscode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>launch.json</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>php.ini</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X：クロスプラットフォーム</t>
+  </si>
+  <si>
+    <t>A：Apache</t>
+  </si>
+  <si>
+    <t>M：MariaDB（※）又は、MySQL</t>
+  </si>
+  <si>
+    <t>P：PHP</t>
+  </si>
+  <si>
+    <t>P：Perl</t>
+  </si>
+  <si>
+    <t>conditional breakpoint</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dubug console</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文法</t>
+    <rPh sb="0" eb="2">
+      <t>ブンポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>require</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>include</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルが無かったらエラー</t>
+    <rPh sb="5" eb="6">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルが無くても処理を続ける</t>
+    <rPh sb="5" eb="6">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>__DIR__</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>__FILE__</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>define</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>var_dump()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XAMPP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://xdebug.org/wizard</t>
+  </si>
+  <si>
+    <t>phpinfo()の結果を下記リンクのウイザードに貼り付けanalysボタンをクリックし、ダウンロードすべきphp_xdebug.dllを出力する</t>
+    <rPh sb="10" eb="12">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>php_xdebug.dllを下記パスに配置</t>
+    <rPh sb="15" eb="17">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>xampp\php\ext</t>
+  </si>
+  <si>
+    <t>③</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>php.iniを編集</t>
+    <rPh sb="8" eb="10">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://qiita.com/hitotch/items/7b2895f9822ded3fa7db</t>
+  </si>
+  <si>
+    <t>参考リンク</t>
+    <rPh sb="0" eb="2">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LNIvugvmCyQ</t>
+  </si>
+  <si>
+    <t>vscodeでXdebugが使用できるようになるExtension</t>
+    <rPh sb="14" eb="16">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デバッグモードで歯車マークをクリックすると、カレントディレクトリにlaunch.jsonを含んだ.vscodeディレクトリが作成される</t>
+    <rPh sb="8" eb="10">
+      <t>ハグルマ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブレイクポイント配置→右クリックでconditional breakpointを設置できる</t>
+    <rPh sb="8" eb="10">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>セッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ctrl + Shift + Yで開ける</t>
+    <rPh sb="17" eb="18">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vscodeのphpのインテリジェンスで一番良いやつ</t>
+    <rPh sb="20" eb="22">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>windowsの場合はC:直下に置くのが慣例そう</t>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チョッカ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カンレイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクリプトを実行しているファイルのパスを返す</t>
+    <rPh sb="6" eb="8">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクリプトを実行しているファイルのあるディレクトリのパスを返す</t>
+    <rPh sb="6" eb="8">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>define("NAME","IIDA");</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定数を定義する</t>
+    <rPh sb="0" eb="2">
+      <t>テイスウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スーパーグローバル変数</t>
+    <rPh sb="9" eb="11">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$GLOBALS</t>
+  </si>
+  <si>
+    <t>$_SERVER</t>
+  </si>
+  <si>
+    <t>$_REQUEST</t>
+  </si>
+  <si>
+    <t>$_POST</t>
+  </si>
+  <si>
+    <t>$_GET</t>
+  </si>
+  <si>
+    <t>$_FILES</t>
+  </si>
+  <si>
+    <t>$_ENV</t>
+  </si>
+  <si>
+    <t>$_COOKIE</t>
+  </si>
+  <si>
+    <t>$_SESSION</t>
+  </si>
+  <si>
+    <t>phpのbuilt in 変数。いつでも、どのスコープからもで参照できる</t>
+    <rPh sb="13" eb="15">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワードプレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブログ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホームページ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無料ブログ</t>
+    <rPh sb="0" eb="2">
+      <t>ムリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Amebaブログ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はてなブログ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホームページ作成に必要なもの</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レンタルサーバ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドメイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者が自分じゃないからカスタマイズできない</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホームページ作成ソフト</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.co.jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IPアドレスに対応した文字列</t>
+    <rPh sb="7" eb="9">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディレクトリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最上位</t>
+    <rPh sb="0" eb="3">
+      <t>サイジョウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドキュメントルート直下にある</t>
+    <rPh sb="9" eb="11">
+      <t>チョッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配下にあるファイルがインターネットでホームページ上で公開される</t>
+    <rPh sb="0" eb="2">
+      <t>ハイカ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドメインの末尾の種類</t>
+    <rPh sb="5" eb="7">
+      <t>マツビ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイトURL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者URL</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SSL化</t>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http ⇒　https</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保護されていない通信→保護された通信（鍵マーク）</t>
+    <rPh sb="0" eb="2">
+      <t>ホゴ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ホゴ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本の1法人につき1つしか取得できないため高価</t>
+    <rPh sb="0" eb="2">
+      <t>ニホン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホウジン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドメインにアクセスしたら表示されるページ</t>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Wordpress立ち上げ</t>
+    <rPh sb="9" eb="10">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーぺージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Wordpressのインストール、ドメインの設定、SSL化の設定などはここでやる</t>
+    <rPh sb="22" eb="24">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象がphpファイルだったらそのファイルにジャンプする</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>html.json</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブレイクポイントで停止中に変数の値を変更したりできる</t>
+    <rPh sb="9" eb="12">
+      <t>テイシチュウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>echoとかできない。if文とかもできない。var_dumpは可能。</t>
+    <rPh sb="13" eb="14">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>php stormはかなり良いinteractiveなREPLらしい</t>
+    <rPh sb="13" eb="14">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user snippetsを定義できる</t>
+    <rPh sb="14" eb="16">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>php開始タグとかはここに定義するのが多い</t>
+    <rPh sb="3" eb="5">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>::</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>self::</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>this</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インスタンスメソッド、インスタンスプロパティにアクセスする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$dog-&gt;bark();</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$dog = new Dog;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$dog-&gt;age;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラスメソッド、クラスプロパティにアクセスする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自インスタンスを指す</t>
+    <rPh sb="0" eb="1">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VSCODE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ショートカット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Ctrl + Shift + space </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reload window</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>拡張機能</t>
+    <rPh sb="0" eb="4">
+      <t>カクチョウキノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dracula Theme</t>
+  </si>
+  <si>
+    <t>Material Icon Theme</t>
+  </si>
+  <si>
+    <t>Bracket Pair Colorizer2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Laravel Snippets</t>
+  </si>
+  <si>
+    <t>Laravel Blade Snippets</t>
+  </si>
+  <si>
+    <t>laravel-goto-controller</t>
+  </si>
+  <si>
+    <t>laravel-goto-view</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Laravel Extra Intellisense</t>
+  </si>
+  <si>
+    <t>Tailwind CSS IntelliSense</t>
+  </si>
+  <si>
+    <t>composer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C:\ProgramData\ComposerSetup</t>
+  </si>
+  <si>
+    <t>グローバルのインストール先</t>
+    <rPh sb="12" eb="13">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インデント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>言語モード</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改行コード</t>
+    <rPh sb="0" eb="2">
+      <t>カイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー・ワーニングでF8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス名::class</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Constant::ZERO;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブラウザの開発者ツールやeclipseの表示タブのようなコード実行機能はよろしくない</t>
+    <rPh sb="5" eb="8">
+      <t>カイハツシャ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コードに色を付けて見やすくしてくれる</t>
+    <rPh sb="4" eb="5">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>括弧に色がついて見やすくなる</t>
+    <rPh sb="0" eb="2">
+      <t>カッコ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイコンが分かり易くなる</t>
+    <rPh sb="5" eb="6">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヤス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Laravel関係</t>
+    <rPh sb="7" eb="9">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cssのインテリジェンス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他クラスを使うにはまずrequireかincludeでファイルを読み込む</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルの読み込み</t>
+    <rPh sb="5" eb="6">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$this-&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自クラスをの静的プロパティ、静的メソッドにアクセスする</t>
+    <rPh sb="0" eb="1">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完全修飾クラス名</t>
+    <rPh sb="0" eb="2">
+      <t>カンゼン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウショク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メソッド記述時に引数を表示する</t>
+    <rPh sb="4" eb="7">
+      <t>キジュツジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>comannd palettaで実行する</t>
+    <rPh sb="16" eb="18">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vscodeを再起動する</t>
+    <rPh sb="7" eb="10">
+      <t>サイキドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー・ワーニングの内容を表示</t>
+    <rPh sb="10" eb="12">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>['リンゴ', 'ブドウ', 'レモン', ]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'apple' =&gt; 'リンゴ',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'grape' =&gt; 'ブドウ',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'lemon' =&gt; 'レモン',</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>配列</t>
+    <rPh sb="0" eb="2">
+      <t>ハイレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>連想配列</t>
+    <rPh sb="0" eb="4">
+      <t>レンソウハイレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$fruits[0]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$fruits['apple']</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ctrl + i</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ctrl + ,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メソッドの説明を表示</t>
+    <rPh sb="5" eb="7">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>settingsの表示</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>function file_put_contents(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    $context</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> $filename,</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mixed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> $data,</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> $flags = 0,</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> { }</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引数の型</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻り値の型。末尾にコロンを付ける</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>マツビ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>function file_put_contents(</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>file_put_contents</t>
+  </si>
+  <si>
+    <t>file_get_contents</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルへの書き込み</t>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルの読み込み</t>
+    <rPh sb="5" eb="6">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>json_decode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>String→JSONオブジェクトに変換</t>
+    <rPh sb="18" eb="20">
+      <t>ヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>json_encode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$_REQUEST['name']</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$_GET['name']</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$_POST['name']</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リクエストパラメータの取得</t>
+    <rPh sb="11" eb="13">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>htmlspesialchars</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>安全性の観点から使わない方がいい</t>
+    <rPh sb="0" eb="3">
+      <t>アンゼンセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンテン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>formでmethod属性を記述しなかった場合のsubmit時のHTTPメソッド</t>
+    <rPh sb="11" eb="13">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GETになる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォームから送られてきた値は基本この関数でサニタイズする</t>
+    <rPh sb="6" eb="7">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配列にする</t>
+    <rPh sb="0" eb="2">
+      <t>ハイレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;input type="checkbox" name="category[]"</t>
+  </si>
+  <si>
+    <t>配列にしないと複数チェックされて送信された場合、一つしか受け取れないので後からチェックされたもので上書きされてしまう</t>
+    <rPh sb="0" eb="2">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ウワガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サニタイズ。エスケープ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォームなどでjsなどでスクリプトが入力されても実行されない。無害な文字列に変換される</t>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ムガイ</t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>header関数</t>
+    <rPh sb="6" eb="8">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>別ページに遷移するのに使う</t>
+    <rPh sb="0" eb="1">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>header('Location: userList.php')</t>
+  </si>
+  <si>
+    <t>exit;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chromeでCookieの確認</t>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cookieの設定</t>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cookieの値の取り出し</t>
+    <rPh sb="7" eb="8">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>setcookie('message','こんにちは',time() + 60 * 60 * 24 * 14);</t>
+  </si>
+  <si>
+    <t>$name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有効期限</t>
+    <rPh sb="0" eb="4">
+      <t>ユウコウキゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$_COOKIE['message']</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブラウザを閉じても保持される</t>
+    <rPh sb="5" eb="6">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>time()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在の秒を返す</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>session_regenerate_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>session_start</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sessionの設定</t>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sessionの値の取り出し</t>
+    <rPh sb="8" eb="9">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cookieの確認</t>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$_SESSION['message']</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$_SESSION['message'] = 'こんにちは'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デベロッパーツール＞Applicationタブ＞Storage＞Cookies</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$_SESSIONを使うときに使用する</t>
+    <rPh sb="10" eb="11">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッションID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッションIDを再生成する</t>
+    <rPh sb="8" eb="11">
+      <t>サイセイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セキリュティの観点からやっといた方が良い</t>
+    <rPh sb="7" eb="9">
+      <t>カンテン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッションファイル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッションが使われたときクライアントのcookieに保存される</t>
+    <rPh sb="6" eb="7">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Key名はPHPSESSID</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デベロッパーツール＞Applicationタブ＞Storage＞Cookiesで確認できる</t>
+    <rPh sb="40" eb="42">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッションIDに紐づいたファイル</t>
+    <rPh sb="8" eb="9">
+      <t>ヒモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sess_セッションIDのファイル名でサーバに保存される</t>
+    <rPh sb="17" eb="18">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェックボックスの値を受け取る場合のname属性の値</t>
+    <rPh sb="9" eb="10">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>enctype="multipart/form-data"</t>
+  </si>
+  <si>
+    <t>フォームでファイルを送信する場合</t>
+    <rPh sb="10" eb="12">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>inputタグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>formタグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$_FILES</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>move_uploaded_file</t>
+  </si>
+  <si>
+    <t>type="file"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバー側での保存先</t>
+    <rPh sb="4" eb="5">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ホゾンサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tmp_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クライアント側のファイル名</t>
+    <rPh sb="6" eb="7">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>拡張子</t>
+    <rPh sb="0" eb="3">
+      <t>カクチョウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバ側で受け取ったパスを含んだファイル名</t>
+    <rPh sb="3" eb="4">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバにアップロードされたファイルを適切なフォルダに格納するのに使われる</t>
+    <rPh sb="18" eb="20">
+      <t>テキセツ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アップロードされたフォルダは一時的にtmpフォルダにランダムなファイル名で保管されるため</t>
+    <rPh sb="14" eb="17">
+      <t>イチジテキ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ホカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>悪意のあるexeファイルなども送信できてしまうため、jsかphpで拡張子チェックは必ずする</t>
+    <rPh sb="0" eb="2">
+      <t>アクイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>カクチョウシ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>カナラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>form</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>typeをfileにする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>enctypeをmultipart/form-dataにする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>methodをPOSTにする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>inputのname属性で指定した値で受け取る</t>
+    <rPh sb="10" eb="12">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルの受け取り</t>
+    <rPh sb="5" eb="6">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クライアント側でのファイル名</t>
+    <rPh sb="6" eb="7">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバ側での保管先のフルパス</t>
+    <rPh sb="3" eb="4">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ホカンサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アップロードされたファイルを適切な場所に移動するのに使われる</t>
+    <rPh sb="14" eb="16">
+      <t>テキセツ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アップロードされたファイルはtmpフォルダに適当な名前が付けられてる</t>
+    <rPh sb="22" eb="24">
+      <t>テキトウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1815,7 +3351,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1868,6 +3404,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -3174,822 +4718,6 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>14726</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>130418</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="図 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65A2DDBB-C599-44CB-B7E6-352FD422C728}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="243840" y="3215126"/>
-          <a:ext cx="10127858" cy="5928874"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="正方形/長方形 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02068351-1A40-4885-9039-4B3D48C64CFE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="716280" y="7132320"/>
-          <a:ext cx="7604760" cy="1524000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>46168</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>114528</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="図 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47650357-A798-4DF1-99DA-E070132BE527}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="243840" y="9829800"/>
-          <a:ext cx="5166808" cy="2629128"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>198602</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>145248</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="図 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C4C0574-E862-46F9-9F4A-6AD428465CA2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="487680" y="16002000"/>
-          <a:ext cx="5563082" cy="5403048"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>152984</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>137489</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="図 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA6CF383-189C-40BF-8B39-439DAB405697}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="487680" y="20574000"/>
-          <a:ext cx="6736664" cy="3795089"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>205740</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="正方形/長方形 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8B3DADF-BDF6-4343-BF98-28A16B68C791}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1859280" y="16459200"/>
-          <a:ext cx="3101340" cy="1348740"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>205740</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="正方形/長方形 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFD516FE-1035-4130-B7B6-7FF3B597914B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1844040" y="17807940"/>
-          <a:ext cx="3131820" cy="1729740"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="正方形/長方形 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4B1EC06-B179-4E03-BE6D-2C94BAB2A7DE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1303020" y="20939760"/>
-          <a:ext cx="1524000" cy="335280"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="正方形/長方形 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DC6E340-48A3-457F-AFD5-F3E4695CC151}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3764280" y="21945600"/>
-          <a:ext cx="464820" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>228852</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>193965</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="図 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F7DF2DB-6409-4336-9938-B401AEF351CB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="487680" y="25831800"/>
-          <a:ext cx="2911092" cy="651165"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>160710</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>61183</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="図 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAF78FCB-200D-4ECF-80CA-691AD78A171C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="487680" y="26746200"/>
-          <a:ext cx="7963590" cy="2575783"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>31032</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>160093</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C86E55B1-D4CF-447D-95AD-366324E306D9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="243840" y="9144000"/>
-          <a:ext cx="6370872" cy="845893"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>402</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>99366</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1E1D37F-6B5F-45AC-9B08-24971BFB3AB1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="243840" y="3200400"/>
-          <a:ext cx="4633362" cy="3528366"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>182836</xdr:rowOff>
     </xdr:from>
@@ -4033,7 +4761,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10156,7 +10884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2012331F-8F8B-475B-BFE6-BE110A42D2BD}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -10165,107 +10893,107 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B14" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B15" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B16" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B18" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -10283,6 +11011,3164 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A6F5E0D-2C8F-4852-8A3D-D4EF3DB60A64}">
+  <dimension ref="B2:H98"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD58" sqref="AD58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="8" width="3.19921875" style="2"/>
+    <col min="9" max="9" width="3.19921875" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="3.19921875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B2" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B5" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C6" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C7" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B12" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C13" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C14" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C15" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C16" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C17" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B19" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C20" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C21" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="F22" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B23" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C24" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B26" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C27" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C28" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C30" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C31" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="13"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C32" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="13"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C33" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="13"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C34" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="13"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C35" s="11"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="13"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C36" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="16"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B38" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C39" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C40" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C42" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B44" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C45" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B47" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C48" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B50" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C51" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B53" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C54" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C55" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C56" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C57" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C58" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C59" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C61" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C62" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C63" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C64" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C66" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C67" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C68" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B76" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C77" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C78" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C79" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C80" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C81" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C83" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C84" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C85" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C86" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C87" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C88" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B90" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C91" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C92" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C93" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C95" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C96" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C97" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C98" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA4960FD-AD13-4AA7-AEB4-A09D87D8B8A2}">
+  <dimension ref="C20:H69"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:R18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="16384" width="3.19921875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C20" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="D21" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C23" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="D24" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="D25" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="D27" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="D28" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C65" s="5"/>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C69" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="D28" r:id="rId1" xr:uid="{E66B55DC-06B2-49DD-A94B-2EC18470755F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9B4444D-1251-4E91-8B69-749A055C586A}">
+  <dimension ref="B2:O54"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="8" width="3.19921875" style="2"/>
+    <col min="9" max="9" width="3.19921875" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="3.19921875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B2" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C3" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C4" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C5" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C6" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C7" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C8" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C10" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C11" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D12" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C13" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C14" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D15" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D16" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C18" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="D19" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C20" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="D21" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="D22" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="D23" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C25" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="D26" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="D27" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="D28" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="D29" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="D30" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="D31" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="C33" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="D34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="D35" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="D36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="D37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="D39" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="C41" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="42" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="D42" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="43" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="D43" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="45" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="C45" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="D46" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="D47" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C49" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C50" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C52" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D53" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D54" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="D39" r:id="rId1" location="htdocs%EF%BC%8F%E3%83%89%E3%82%AD%E3%83%A5%E3%83%A1%E3%83%B3%E3%83%88%E3%83%AB%E3%83%BC%E3%83%88%E3%81%AE%E5%A0%B4%E6%89%80%EF%BC%88OS%E5%88%A5%EF%BC%89" xr:uid="{445A6E4D-51FF-4786-B5D5-1BA7256ABCB8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B108357B-A1F5-4042-8C72-A6F9E02B638C}">
+  <dimension ref="A1:C225"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="16384" width="3.19921875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="3"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B30" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B42" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A61" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A95" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A120" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B121" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A128" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A202" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A225" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C4222A-5096-4248-AFA0-DF34DE54F93F}">
+  <dimension ref="A1:M131"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="C110" sqref="C110"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="16384" width="3.19921875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B2" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B4" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B5" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B6" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B7" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B8" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B9" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B10" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B11" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B12" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B13" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B14" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B15" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B16" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B17" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B18" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B19" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B20" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B21" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B22" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="C23" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B35" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B36" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B37" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B38" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B39" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B40" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B41" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C42" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C43" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C44" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C45" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C46" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C47" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C48" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C49" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C50" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B51" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B52" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B53" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B54" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B55" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B56" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B57" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B58" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B59" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B60" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B61" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B62" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B63" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B64" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B65" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B66" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B67" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B69" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B70" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B72" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B73" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B75" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B76" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B77" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B79" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B81" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B83" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B85" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B87" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B88" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B89" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B91" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B94" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B95" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B97" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B98" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B99" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B100" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B102" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C103" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C104" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D105" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D106" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D107" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C110" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C111" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A118" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B119" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C120" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C121" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C122" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C123" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B124" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C125" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B126" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C127" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C128" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C129" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B131" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9449A754-168E-45A0-888C-A45406812C63}">
+  <dimension ref="A1:M254"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="16384" width="3.19921875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B2" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C3" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C4" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C5" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C6" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C7" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C8" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B10" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C11" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D12" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C13" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D14" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C15" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C16" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C17" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C18" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B20" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C21" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C22" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B24" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C25" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B27" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C28" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C29" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C30" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C31" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C32" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B34" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C35" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B37" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C38" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C39" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B41" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C42" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B43" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C44" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B45" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C46" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B47" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C48" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="C49" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="C50" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="C51" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="C52" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B54" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="C55" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B57" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="C58" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A60" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B61" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="C62" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="C63" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="F64" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F65" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B67" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B68" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B69" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="E70" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B71" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B72" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C73" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C74" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C75" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C76" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C77" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C78" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C79" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C80" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C81" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C82" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B84" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C85" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C86" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C87" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C88" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B90" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C91" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C92" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B94" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C95" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B97" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C98" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B100" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C101" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B103" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C104" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C105" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B107" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C108" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C109" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C110" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C111" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C112" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="C113" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B115" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B116" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="J116" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B117" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B118" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B119" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B120" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="J120" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B122" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="C123" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B125" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="C126" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B128" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C129" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B131" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B133" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C134" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="I134" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C135" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C136" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B138" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C139" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C140" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C141" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="143" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B143" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C144" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B146" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C147" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C148" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C149" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B151" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C152" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C153" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C154" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B156" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C157" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B159" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C160" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="161" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="F161" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="I161" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="L161" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="162" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="L162" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="163" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B163" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="164" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C164" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="166" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B166" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="167" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C167" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="169" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B169" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="170" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C170" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="172" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B172" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="173" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C173" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="174" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C174" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="176" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B176" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C177" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C178" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C179" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B181" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C182" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C183" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B185" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C186" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B188" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C189" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A192" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="193" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B193" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="194" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C194" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="I194" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="195" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C195" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="I195" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="196" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C196" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="I196" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="197" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C197" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="I197" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="198" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="I198" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="202" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B202" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="203" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C203" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="204" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C204" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="205" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C205" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="207" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B207" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="I207" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="209" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B209" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="210" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C210" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="211" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="D211" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="213" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C213" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="214" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="D214" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="216" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C216" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="218" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="D218" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="219" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="E219" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="220" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="D220" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="221" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="E221" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="222" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="E222" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="224" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="D224" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="225" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="E225" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="227" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C227" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="228" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="D228" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="229" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="D229" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="231" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C231" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="232" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="D232" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="233" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="E233" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="234" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="F234" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="235" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="E235" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="236" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="F236" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="237" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="F237" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="239" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="D239" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="240" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="E240" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="241" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="F241" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="243" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="E243" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="244" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="F244" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="246" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="E246" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="247" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="F247" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="249" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="E249" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="250" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="F250" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="252" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D252" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="253" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="E253" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="254" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="E254" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C17" r:id="rId1" xr:uid="{57CBA92C-0CDA-4F8B-917B-5FEC0BB48900}"/>
+    <hyperlink ref="C18" r:id="rId2" xr:uid="{75E38F66-0811-4BAD-BCFF-2760CC0335ED}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{052FB61B-4A13-47A2-8718-3697754A0699}">
+  <dimension ref="C2:AA25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="8" width="3.19921875" style="2"/>
+    <col min="9" max="9" width="3.19921875" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="3.19921875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:27" x14ac:dyDescent="0.45">
+      <c r="C2" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="3:27" x14ac:dyDescent="0.45">
+      <c r="C3" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="3:27" x14ac:dyDescent="0.45">
+      <c r="C4" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="3:27" x14ac:dyDescent="0.45">
+      <c r="C6" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="3:27" x14ac:dyDescent="0.45">
+      <c r="C7" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" spans="3:27" x14ac:dyDescent="0.45">
+      <c r="C9" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="3:27" x14ac:dyDescent="0.45">
+      <c r="C10" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="12" spans="3:27" x14ac:dyDescent="0.45">
+      <c r="C12" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" spans="3:27" x14ac:dyDescent="0.45">
+      <c r="C13" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA13" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="14" spans="3:27" x14ac:dyDescent="0.45">
+      <c r="C14" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="AA14" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="16" spans="3:27" x14ac:dyDescent="0.45">
+      <c r="C16" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.45">
+      <c r="C17" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="AA17" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.45">
+      <c r="AA18" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.45">
+      <c r="C19" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="AA19" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.45">
+      <c r="C20" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA20" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.45">
+      <c r="C21" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="AA21" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.45">
+      <c r="C22" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AA22" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.45">
+      <c r="AA23" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.45">
+      <c r="AA24" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.45">
+      <c r="AA25" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C38" r:id="rId1" display="https://packagist.org/" xr:uid="{816EBF88-6E7D-4DEF-8CE1-0C07AB74586C}"/>
+    <hyperlink ref="C22" r:id="rId2" xr:uid="{B9FF6CA4-F37C-4280-A68F-F9B0F1B2A609}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107B029E-ECF5-4676-91C1-C4A29D01E8E9}">
+  <dimension ref="B2:V48"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="8" width="3.19921875" style="2"/>
+    <col min="9" max="9" width="3.19921875" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="3.19921875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B2" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C3" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C4" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B6" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C7" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C8" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B10" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C11" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C12" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B14" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C15" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F16" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C17" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C18" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F19" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F20" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C21" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F22" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C23" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C24" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C26" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B28" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C29" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C31" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C32" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C33" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C35" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C36" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C37" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C38" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C40" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C41" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B43" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C44" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="C45" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B47" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="V47" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B48" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{49B83F4C-28CB-4615-B2D2-C3CCF112C754}"/>
+    <hyperlink ref="C41" r:id="rId2" xr:uid="{090C48E0-5745-4C8A-8327-36476F5982C7}"/>
+    <hyperlink ref="C26" r:id="rId3" xr:uid="{C1591E14-6A01-4057-BF41-E66815115049}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D74DC7-4010-4617-A974-1E5E9561D7E7}">
+  <dimension ref="A1:M59"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L48" sqref="L48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="16384" width="3.19921875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C4" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B7" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C8" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C9" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B11" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C12" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C13" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B17" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B19" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="C20" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="C21" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="C22" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="C23" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="C24" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="C25" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B27" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="C28" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="C29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M29" s="7"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B31" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="C32" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C33" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B35" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C36" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C37" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B39" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C40" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B42" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C43" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B45" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C46" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B48" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C49" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B51" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B53" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C54" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B56" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C57" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C58" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C59" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A989A803-F200-457C-8D50-267D686D569A}">
+  <dimension ref="B2:B5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="16384" width="3.19921875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B2" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B4" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B5" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{E47392F5-166E-4A1C-BD2D-14EFC70CA8B7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C8383D6-672D-4776-ACD6-B4CCFA974FBA}">
   <dimension ref="A1:M36"/>
   <sheetViews>
@@ -10299,32 +14185,32 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B6" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B7" s="17" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -10335,17 +14221,17 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B8" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B11" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B12" s="17" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
@@ -10361,12 +14247,12 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B14" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B15" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -10377,7 +14263,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B16" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -10397,7 +14283,7 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B18" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -10408,7 +14294,7 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B19" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -10419,7 +14305,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B20" s="14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -10430,12 +14316,12 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B22" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B23" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -10446,7 +14332,7 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B24" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
@@ -10466,7 +14352,7 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B26" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -10477,7 +14363,7 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B27" s="11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
@@ -10488,7 +14374,7 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B28" s="14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -10499,12 +14385,12 @@
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B30" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B31" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -10515,7 +14401,7 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B32" s="11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
@@ -10526,7 +14412,7 @@
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B33" s="11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
@@ -10546,7 +14432,7 @@
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B35" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
@@ -10557,7 +14443,7 @@
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B36" s="14" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
@@ -10571,1688 +14457,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A6F5E0D-2C8F-4852-8A3D-D4EF3DB60A64}">
-  <dimension ref="B2:H98"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD58" sqref="AD58"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="8" width="3.19921875" style="2"/>
-    <col min="9" max="9" width="3.19921875" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="3.19921875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B2" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B5" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C6" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C7" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B12" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C13" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C14" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C15" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C16" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C17" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B19" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C20" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C21" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="F22" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B23" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C24" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B26" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C27" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C28" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C30" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="10"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C31" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="13"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C32" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="13"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C33" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="13"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C34" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="13"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C35" s="11"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="13"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C36" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="16"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B38" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C39" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C40" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C42" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B44" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C45" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B47" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C48" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B50" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C51" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B53" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C54" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C55" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C56" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C57" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C58" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C59" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C61" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C62" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C63" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C64" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C66" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C67" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C68" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B76" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C77" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C78" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C79" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C80" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C81" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C83" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C84" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C85" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C86" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C87" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C88" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B90" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C91" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C92" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C93" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C95" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C96" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C97" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C98" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B108357B-A1F5-4042-8C72-A6F9E02B638C}">
-  <dimension ref="A1:C225"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A238" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="16384" width="3.19921875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" s="3"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B30" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B42" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A45" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A61" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A95" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A120" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B121" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A128" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A202" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A225" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C4222A-5096-4248-AFA0-DF34DE54F93F}">
-  <dimension ref="A1:AH223"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="AK75" sqref="AK75"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="16384" width="3.19921875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B3" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B4" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B5" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" s="3"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A27" s="4"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A37" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B51" s="7" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B52" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C53" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C54" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C55" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A56" s="4"/>
-      <c r="D56" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B58" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C59" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C60" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C61" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C62" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B64" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="65" spans="3:26" x14ac:dyDescent="0.45">
-      <c r="C65" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="74" spans="3:26" x14ac:dyDescent="0.45">
-      <c r="Z74" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="80" spans="3:26" x14ac:dyDescent="0.45">
-      <c r="Z80" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="AH81" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A90" s="4"/>
-    </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A91" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="C92" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="C93" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="C94" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="C95" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A118" s="4"/>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A126" s="4"/>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A200" s="4"/>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A223" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{052FB61B-4A13-47A2-8718-3697754A0699}">
-  <dimension ref="C2:AA25"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="8" width="3.19921875" style="2"/>
-    <col min="9" max="9" width="3.19921875" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="3.19921875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="3:27" x14ac:dyDescent="0.45">
-      <c r="C2" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="3" spans="3:27" x14ac:dyDescent="0.45">
-      <c r="C3" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="4" spans="3:27" x14ac:dyDescent="0.45">
-      <c r="C4" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="6" spans="3:27" x14ac:dyDescent="0.45">
-      <c r="C6" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="7" spans="3:27" x14ac:dyDescent="0.45">
-      <c r="C7" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="AA7" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="9" spans="3:27" x14ac:dyDescent="0.45">
-      <c r="C9" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="AA9" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="10" spans="3:27" x14ac:dyDescent="0.45">
-      <c r="C10" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="12" spans="3:27" x14ac:dyDescent="0.45">
-      <c r="C12" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="13" spans="3:27" x14ac:dyDescent="0.45">
-      <c r="C13" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="AA13" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="14" spans="3:27" x14ac:dyDescent="0.45">
-      <c r="C14" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="AA14" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="16" spans="3:27" x14ac:dyDescent="0.45">
-      <c r="C16" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.45">
-      <c r="C17" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="AA17" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.45">
-      <c r="AA18" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.45">
-      <c r="C19" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="AA19" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.45">
-      <c r="C20" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="AA20" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.45">
-      <c r="C21" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="AA21" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.45">
-      <c r="C22" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="AA22" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.45">
-      <c r="AA23" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.45">
-      <c r="AA24" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.45">
-      <c r="AA25" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C38" r:id="rId1" display="https://packagist.org/" xr:uid="{816EBF88-6E7D-4DEF-8CE1-0C07AB74586C}"/>
-    <hyperlink ref="C22" r:id="rId2" xr:uid="{B9FF6CA4-F37C-4280-A68F-F9B0F1B2A609}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107B029E-ECF5-4676-91C1-C4A29D01E8E9}">
-  <dimension ref="B2:V48"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="8" width="3.19921875" style="2"/>
-    <col min="9" max="9" width="3.19921875" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="3.19921875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B2" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C3" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C4" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B6" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C7" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C8" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B10" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C11" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C12" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B14" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C15" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="F16" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C17" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C18" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="F19" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="F20" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C21" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="F22" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C23" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C24" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C26" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B28" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C29" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C31" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C32" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="C33" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="C35" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="C36" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="C37" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="C38" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="C40" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="C41" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="B43" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="C44" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="C45" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="B47" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="V47" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="B48" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{49B83F4C-28CB-4615-B2D2-C3CCF112C754}"/>
-    <hyperlink ref="C41" r:id="rId2" xr:uid="{090C48E0-5745-4C8A-8327-36476F5982C7}"/>
-    <hyperlink ref="C26" r:id="rId3" xr:uid="{C1591E14-6A01-4057-BF41-E66815115049}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865314CD-DD85-4FCF-9EA9-1BB188AB8EA1}">
-  <dimension ref="B2:T45"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="8" width="3.19921875" style="2"/>
-    <col min="9" max="9" width="3.19921875" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="3.19921875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B2" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B3" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B4" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B6" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B7" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B8" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B10" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B11" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B13" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B14" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B16" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B17" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C34" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C35" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C36" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C37" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C38" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B40" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C45" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA4960FD-AD13-4AA7-AEB4-A09D87D8B8A2}">
-  <dimension ref="C2:O69"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="16384" width="3.19921875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="C2" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="D3" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="D4" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="D5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="D6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="C8" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="D9" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="D10" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="C12" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="D13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="D14" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="D15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="D16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="D18" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C20" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="D21" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C23" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="D24" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="D25" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="D27" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="D28" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C65" s="5"/>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C69" s="5"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="D18" r:id="rId1" location="htdocs%EF%BC%8F%E3%83%89%E3%82%AD%E3%83%A5%E3%83%A1%E3%83%B3%E3%83%88%E3%83%AB%E3%83%BC%E3%83%88%E3%81%AE%E5%A0%B4%E6%89%80%EF%BC%88OS%E5%88%A5%EF%BC%89" xr:uid="{445A6E4D-51FF-4786-B5D5-1BA7256ABCB8}"/>
-    <hyperlink ref="D28" r:id="rId2" xr:uid="{E66B55DC-06B2-49DD-A94B-2EC18470755F}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D74DC7-4010-4617-A974-1E5E9561D7E7}">
-  <dimension ref="A1:M59"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="16384" width="3.19921875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B3" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C4" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B7" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C8" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C9" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B11" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C12" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C13" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B17" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B19" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="C20" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="C21" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="C22" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="C23" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="C24" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="C25" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B27" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="C28" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="C29" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="M29" s="7"/>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B31" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="C32" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C33" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B35" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C36" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C37" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B39" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C40" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B42" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C43" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B45" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C46" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B48" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C49" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B51" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B53" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C54" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B56" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C57" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C58" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C59" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A989A803-F200-457C-8D50-267D686D569A}">
-  <dimension ref="B2:B5"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="16384" width="3.19921875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B2" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B3" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B4" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B5" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{E47392F5-166E-4A1C-BD2D-14EFC70CA8B7}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
-  <drawing r:id="rId3"/>
-</worksheet>
 </file>
--- a/WordPress勉強/WordPress.xlsx
+++ b/WordPress勉強/WordPress.xlsx
@@ -8,23 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keite\Desktop\ノート\WordPress勉強\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EF130A-2675-413F-B696-C329ACEFBB0F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C2FE8E-8C2C-4CBA-8C83-6E01B480E886}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8952" activeTab="3" xr2:uid="{23A547DA-F9B8-4989-9B8D-BFB06737F436}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8952" activeTab="1" xr2:uid="{23A547DA-F9B8-4989-9B8D-BFB06737F436}"/>
   </bookViews>
   <sheets>
     <sheet name="リンク" sheetId="22" r:id="rId1"/>
-    <sheet name="eclipse環境構築" sheetId="24" r:id="rId2"/>
-    <sheet name="vscode環境構築" sheetId="34" r:id="rId3"/>
-    <sheet name="vscode環境構築 (2)" sheetId="35" r:id="rId4"/>
-    <sheet name="mysql" sheetId="32" r:id="rId5"/>
-    <sheet name="composer" sheetId="30" r:id="rId6"/>
-    <sheet name="セッション" sheetId="25" r:id="rId7"/>
-    <sheet name="セッション (絵)" sheetId="26" r:id="rId8"/>
-    <sheet name="namespase" sheetId="29" r:id="rId9"/>
-    <sheet name="PHP" sheetId="31" r:id="rId10"/>
-    <sheet name="用語" sheetId="23" r:id="rId11"/>
-    <sheet name="namespase (2)" sheetId="37" r:id="rId12"/>
+    <sheet name="vscode環境構築" sheetId="34" r:id="rId2"/>
+    <sheet name="vscode環境構築 (2)" sheetId="35" r:id="rId3"/>
+    <sheet name="mysql" sheetId="32" r:id="rId4"/>
+    <sheet name="composer" sheetId="30" r:id="rId5"/>
+    <sheet name="セッション" sheetId="25" r:id="rId6"/>
+    <sheet name="セッション (絵)" sheetId="26" r:id="rId7"/>
+    <sheet name="namespase (2)" sheetId="37" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="438">
   <si>
     <t>ドキュメントルート</t>
   </si>
@@ -122,108 +118,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>eclipseのダウンロード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>xamppのダウンロード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>php.iniの編集</t>
-    <rPh sb="8" eb="10">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>外部ブラウザ起動の設定</t>
-    <rPh sb="0" eb="2">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>デバッグの構成</t>
-    <rPh sb="5" eb="7">
-      <t>コウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C:\pleiades.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C:\xampp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C:\xampp\php\php.ini</t>
-  </si>
-  <si>
-    <t>phpプロジェクトの作成</t>
-    <rPh sb="10" eb="12">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ワークスペースの設定</t>
-    <rPh sb="8" eb="10">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>phpファイルの作成</t>
-    <rPh sb="8" eb="10">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>デバッグの実行</t>
-    <rPh sb="5" eb="7">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.</t>
-  </si>
-  <si>
-    <t>3.</t>
-  </si>
-  <si>
-    <t>4.</t>
-  </si>
-  <si>
-    <t>5.</t>
-  </si>
-  <si>
-    <t>6.</t>
-  </si>
-  <si>
-    <t>7.</t>
-  </si>
-  <si>
-    <t>8.</t>
-  </si>
-  <si>
-    <t>9.</t>
-  </si>
-  <si>
     <t>httpd.confに場所が書かれてる</t>
     <rPh sb="11" eb="13">
       <t>バショ</t>
@@ -337,17 +231,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>php.ini</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>phpの設定ファイル</t>
-    <rPh sb="4" eb="6">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>session.gc_maxlifetime</t>
   </si>
   <si>
@@ -574,184 +457,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;?php</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>namespase</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>定義</t>
-    <rPh sb="0" eb="2">
-      <t>テイギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>namespace 名前空間;</t>
-    <rPh sb="10" eb="12">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>クウカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・1ファイルにつき1名前空間が推奨</t>
-    <rPh sb="10" eb="12">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>クウカン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>スイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>namespace sato;</t>
-  </si>
-  <si>
-    <t>function getGreeting() {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    return '佐藤';</t>
-    <rPh sb="12" eb="14">
-      <t>サトウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sato.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>呼び出し方</t>
-    <rPh sb="0" eb="1">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>カタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>suzuki.php</t>
-  </si>
-  <si>
-    <t>namespace suzuki;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    return '鈴木';</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>require_once 'sato.php';</t>
-  </si>
-  <si>
-    <t>require_once 'suzuki.php';</t>
-  </si>
-  <si>
-    <t>echo sato\getGreeting();</t>
-  </si>
-  <si>
-    <t>名前空間\関数[クラス,インターフェース...]</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>クウカン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カンスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>echo suzuki\getGreeting();</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>call.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>先頭に記述する</t>
-    <rPh sb="0" eb="1">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>アタマ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キジュツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・変数、define()の定数は対象外</t>
-    <rPh sb="1" eb="3">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>テイスウ</t>
-    </rPh>
-    <rPh sb="16" eb="19">
-      <t>タイショウガイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・クラス、インターフェース、関数、const定数などが対象</t>
-    <rPh sb="14" eb="16">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>テイスウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>タイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>htmlspecialchars()</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>htmlで特別な意味を持つ文字を通常の文字列に変換する</t>
-    <rPh sb="5" eb="7">
-      <t>トクベツ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>イミ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ツウジョウ</t>
-    </rPh>
-    <rPh sb="19" eb="22">
-      <t>モジレツ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ヘンカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>https://www.flatflag.nir87.com/htmlspecialchars-555</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -769,13 +474,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>XSS（クロスサイトスクリプティング）の防止</t>
-    <rPh sb="20" eb="22">
-      <t>ボウシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>https://getcomposer.org/download/</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1030,329 +728,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;?PHP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>?&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PHP_EOL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>改行文字列</t>
-    <rPh sb="0" eb="2">
-      <t>カイギョウ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>モジレツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>環境によって変わる</t>
-    <rPh sb="0" eb="2">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>文字列連結</t>
-    <rPh sb="0" eb="3">
-      <t>モジレツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>レンケツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コメント</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/*</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>複数行コメント</t>
-    <rPh sb="0" eb="3">
-      <t>フクスウギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>*/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>// コメント</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t># コメント</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>文字列</t>
-    <rPh sb="0" eb="3">
-      <t>モジレツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>'文字列'</t>
-    <rPh sb="1" eb="4">
-      <t>モジレツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>"文字列"</t>
-    <rPh sb="1" eb="4">
-      <t>モジレツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>シングルクォート</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ダブルクォート</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>変数が埋め込める</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>$name = 'taguchi';</t>
-  </si>
-  <si>
-    <t>$text = &lt;&lt;&lt;EOT</t>
-  </si>
-  <si>
-    <t>hello! $name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  this is looooong</t>
-  </si>
-  <si>
-    <t>text!</t>
-  </si>
-  <si>
-    <t>EOT;</t>
-  </si>
-  <si>
-    <t>ヒアドキュメント</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>改行など保持</t>
-    <rPh sb="0" eb="2">
-      <t>カイギョウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ホジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>定数の定義</t>
-    <rPh sb="0" eb="2">
-      <t>テイスウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>テイギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>const NAME = 'taguchi'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>define('NAME', 'taguchi')</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>定数は$を付けない、大文字</t>
-    <rPh sb="0" eb="2">
-      <t>テイスウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>オオモジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>var_dump()</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>変数の値と型を出力</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キャスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>$str = (String)1000;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">function showAd() </t>
-  </si>
-  <si>
-    <t>{</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  echo '----------' . PHP_EOL;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  echo '--- Ad ---' . PHP_EOL;</t>
-  </si>
-  <si>
-    <t>関数</t>
-    <rPh sb="0" eb="2">
-      <t>カンスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  return $a + $b + $c;</t>
-  </si>
-  <si>
-    <t>};</t>
-  </si>
-  <si>
-    <t>$scores = [</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'first'  =&gt; 90, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'second' =&gt; 40, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  'third'  =&gt; 100,</t>
-  </si>
-  <si>
-    <t>];</t>
-  </si>
-  <si>
-    <t>配列</t>
-    <rPh sb="0" eb="2">
-      <t>ハイレツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  90, </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  100,</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  40, </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キー名を変更できる</t>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>foreach ($scores as $score) {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  echo $score</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>foreach ($scores as $key =&gt; $score) {</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>foreach</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  echo $key</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>print_r()</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>var_dumpより見やすい</t>
-    <rPh sb="10" eb="11">
-      <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>function sum(...$numbers)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$sum = function ($a, $b, $c) { </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>// 無名関数</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>//可変長引数</t>
-    <rPh sb="2" eb="5">
-      <t>カヘンチョウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒキスウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1779,16 +1155,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スクリプトを実行しているファイルのあるディレクトリのパスを返す</t>
-    <rPh sb="6" eb="8">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>カエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>define("NAME","IIDA");</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2370,25 +1736,6 @@
   </si>
   <si>
     <t>$this-&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自クラスをの静的プロパティ、静的メソッドにアクセスする</t>
-    <rPh sb="0" eb="1">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>テキ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2782,65 +2129,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>フォームから送られてきた値は基本この関数でサニタイズする</t>
-    <rPh sb="6" eb="7">
-      <t>オク</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>カンスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>配列にする</t>
-    <rPh sb="0" eb="2">
-      <t>ハイレツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>&lt;input type="checkbox" name="category[]"</t>
-  </si>
-  <si>
-    <t>配列にしないと複数チェックされて送信された場合、一つしか受け取れないので後からチェックされたもので上書きされてしまう</t>
-    <rPh sb="0" eb="2">
-      <t>ハイレツ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ウワガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サニタイズ。エスケープ</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>フォームなどでjsなどでスクリプトが入力されても実行されない。無害な文字列に変換される</t>
@@ -2973,13 +2262,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Sessionの設定</t>
-    <rPh sb="8" eb="10">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Sessionの値の取り出し</t>
     <rPh sb="8" eb="9">
       <t>アタイ</t>
@@ -3091,28 +2373,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>チェックボックスの値を受け取る場合のname属性の値</t>
-    <rPh sb="9" eb="10">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ゾクセイ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>enctype="multipart/form-data"</t>
   </si>
   <si>
@@ -3145,16 +2405,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>サーバー側での保存先</t>
-    <rPh sb="4" eb="5">
-      <t>ガワ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>ホゾンサキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3216,19 +2466,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アップロードされたフォルダは一時的にtmpフォルダにランダムなファイル名で保管されるため</t>
-    <rPh sb="14" eb="17">
-      <t>イチジテキ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ホカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>悪意のあるexeファイルなども送信できてしまうため、jsかphpで拡張子チェックは必ずする</t>
     <rPh sb="0" eb="2">
       <t>アクイ</t>
@@ -3249,100 +2486,488 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>mysqli</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$db = new mysqli('localhost','root','password','database')</t>
+  </si>
+  <si>
+    <t>ページングはどのように行うか</t>
+    <rPh sb="11" eb="12">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SQL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>?page=5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELECT * FROM ITEMS LIMIT 10, 20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始</t>
+    <rPh sb="0" eb="2">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>件数</t>
+    <rPh sb="0" eb="2">
+      <t>ケンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※mysql、postgresではlimitが使えるがoracleにlimitはないため、rownumもしくはrow_number()を使う</t>
+    <rPh sb="23" eb="24">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URLでページを指定</t>
+    <rPh sb="8" eb="10">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SQLのLIMITを使う</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクリプトを実行しているファイルのディレクトリのパスを返す</t>
+    <rPh sb="6" eb="8">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>method="POST"</t>
+  </si>
+  <si>
+    <t>Mysqlへのアクセス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>form</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>input</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>typeをfileにする</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>enctypeをmultipart/form-dataにする</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>methodをPOSTにする</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>inputのname属性で指定した値で受け取る</t>
+    <t>preタグの特徴</t>
+    <rPh sb="6" eb="8">
+      <t>トクチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半角空白や改行などがそのまま表示される</t>
+    <rPh sb="0" eb="2">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイギョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーメッセージの制御</t>
+    <rPh sb="9" eb="11">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>filter_input</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォームから送られてきた値は必ずサニタイズする</t>
+    <rPh sb="6" eb="7">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カナラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>filter_input(INPUT_POST,'name',FILTER_SANITIZE_STRING)</t>
+  </si>
+  <si>
+    <t>filter_input</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォームで送信された情報をサニタイズするのによく使われる関数</t>
+    <rPh sb="5" eb="7">
+      <t>ソウシン</t>
+    </rPh>
     <rPh sb="10" eb="12">
-      <t>ゾクセイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$_SERVER['REQUEST_METHOD']</t>
+  </si>
+  <si>
+    <t>リクエストメソッドの判定</t>
+    <rPh sb="10" eb="12">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$_SERVER['REQUEST_METHOD'] === 'POST'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遷移先の画面に値を渡す方法</t>
+    <rPh sb="0" eb="3">
+      <t>センイサキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
       <t>アタイ</t>
     </rPh>
+    <rPh sb="9" eb="10">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$_SESSIONを使う</t>
+    <rPh sb="10" eb="11">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$_SESSION = $form</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像の保存先</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ホゾ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバの専用のディレクトリに保存</t>
+    <rPh sb="4" eb="6">
+      <t>センヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※DBだと処理に時間がかかる。ファイル名はDBに保存</t>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジカン</t>
+    </rPh>
     <rPh sb="19" eb="20">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ファイルの受け取り</t>
-    <rPh sb="5" eb="6">
-      <t>ウ</t>
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像の名前</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date関数を使ってミリ秒までの値を取得してファイル名に付加する</t>
+    <rPh sb="4" eb="6">
+      <t>カンスウ</t>
     </rPh>
     <rPh sb="7" eb="8">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クライアント側でのファイル名</t>
-    <rPh sb="6" eb="7">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像の表示</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;img src="&lt;?php echo $file; ?&gt;"&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッションのクリア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unset($_SESSION[$form])</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>html側</t>
+    <rPh sb="4" eb="5">
       <t>ガワ</t>
     </rPh>
-    <rPh sb="13" eb="14">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サーバ側での保管先のフルパス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーメッセージをべた書き</t>
+    <rPh sb="11" eb="12">
+      <t>ガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>php側</t>
     <rPh sb="3" eb="4">
       <t>ガワ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if構文で表示・非表示を制御</t>
+    <rPh sb="2" eb="4">
+      <t>コウブン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sessionに値を入れる</t>
+    <rPh sb="8" eb="9">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sessionから値を取り出す</t>
+    <rPh sb="9" eb="10">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェックボックスの値の受け取り方</t>
+    <rPh sb="9" eb="10">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>html側</t>
+    <rPh sb="4" eb="5">
+      <t>ガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>inputタグのname属性の値を配列型にする</t>
+    <rPh sb="12" eb="14">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配列型にしないと複数チェックされて送信された場合、一つしか受け取れないので後からチェックされたもので上書きされてしまう</t>
+    <rPh sb="0" eb="2">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ウワガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>htmlやjsなどの意味のある文字を無害な文字列にする。サニタイズ。エスケープ</t>
+    <rPh sb="10" eb="12">
+      <t>イミ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ムガイ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リクエストメソッドの判定</t>
+    <rPh sb="10" eb="12">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オブジェクト演算子</t>
     <rPh sb="6" eb="9">
-      <t>ホカンサキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アップロードされたファイルを適切な場所に移動するのに使われる</t>
-    <rPh sb="14" eb="16">
-      <t>テキセツ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>バショ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アップロードされたファイルはtmpフォルダに適当な名前が付けられてる</t>
-    <rPh sb="22" eb="24">
-      <t>テキトウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ツ</t>
+      <t>エンザンシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス演算子</t>
+    <rPh sb="3" eb="6">
+      <t>エンザンシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自クラスの静的プロパティ、静的メソッドにアクセスする</t>
+    <rPh sb="0" eb="1">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>テキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3426,129 +3051,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -3560,7 +3068,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3585,45 +3093,6 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -3643,1076 +3112,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>122691</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>167833</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38DE523A-62C2-448A-8F2B-1A68569EC00C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="731520" y="2057400"/>
-          <a:ext cx="8900931" cy="2225233"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>69114</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>45783</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BBF7678-4258-4B6D-A1BA-C5F69612A1F6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="731520" y="4572000"/>
-          <a:ext cx="6165114" cy="731583"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>22723</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>91680</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{920DC8E7-2138-4D09-96E5-E02B0ED0A4F7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="731520" y="6423523"/>
-          <a:ext cx="2773920" cy="1577477"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>220980</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>130101</xdr:colOff>
-      <xdr:row>151</xdr:row>
-      <xdr:rowOff>15698</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{508D8177-A665-4AA6-AF15-318E980C687B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="723900" y="28795980"/>
-          <a:ext cx="6477561" cy="5281118"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>15706</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>122168</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{754A8851-9C63-4B68-BCE0-F5AA62D7270F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="731520" y="11201400"/>
-          <a:ext cx="5380186" cy="2865368"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>61451</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>160628</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6CC0B52-A0ED-4EBF-9315-69B8BF0A21BD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="731520" y="15087600"/>
-          <a:ext cx="5669771" cy="7018628"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>114754</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>30918</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="図 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{585ECB35-7DE2-4D33-B427-17963547F465}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="731520" y="22860000"/>
-          <a:ext cx="5235394" cy="5060118"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>152</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>160583</xdr:colOff>
-      <xdr:row>175</xdr:row>
-      <xdr:rowOff>53800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="図 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1620ACF-6B9A-4A96-AA2A-BDCAADFC8CAE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="731520" y="34747200"/>
-          <a:ext cx="6500423" cy="5311600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>176</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>114859</xdr:colOff>
-      <xdr:row>199</xdr:row>
-      <xdr:rowOff>23318</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="図 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC4978EB-79DC-4F79-B5F0-C4672E8FB9E0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="731520" y="39776400"/>
-          <a:ext cx="6454699" cy="5281118"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>160351</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>45783</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="図 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D16393A2-5E74-4C9D-997E-0502C64FAEC8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="731520" y="29260800"/>
-          <a:ext cx="3817951" cy="731583"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>235839</xdr:colOff>
-      <xdr:row>225</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>230</xdr:row>
-      <xdr:rowOff>61064</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="図 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F732D569-4FC2-45C7-875D-C6FEA0FD7979}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="723519" y="50977800"/>
-          <a:ext cx="4397121" cy="1204064"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>202</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>122374</xdr:colOff>
-      <xdr:row>221</xdr:row>
-      <xdr:rowOff>129928</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="図 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F8D655D-DFEC-42E3-A906-23F1DEDD1B38}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="731520" y="45720000"/>
-          <a:ext cx="5243014" cy="4473328"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>232</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>122924</xdr:colOff>
-      <xdr:row>258</xdr:row>
-      <xdr:rowOff>15756</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="図 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A50A2491-DD04-44F7-B615-BE47BF50F9A9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="731520" y="53035200"/>
-          <a:ext cx="11583404" cy="5959356"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>161</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>164</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="吹き出し: 線 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD7B2D6B-B756-497C-A4DB-3E04896F8724}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4046220" y="36941760"/>
-          <a:ext cx="1950720" cy="624840"/>
-        </a:xfrm>
-        <a:prstGeom prst="borderCallout1">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 100457"/>
-            <a:gd name="adj2" fmla="val -5208"/>
-            <a:gd name="adj3" fmla="val 13720"/>
-            <a:gd name="adj4" fmla="val -71927"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>チェック外す</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>213360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBEBD0B0-5FCB-44ED-956A-09C571A6BCCC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6941820" y="4556760"/>
-          <a:ext cx="2125980" cy="861060"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="正方形/長方形 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{530D2EF6-9BE5-48A8-8CFF-8029BF829C3E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1569720" y="6057900"/>
-          <a:ext cx="1112520" cy="426720"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>188</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>191</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="吹き出し: 線 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27209BDA-F128-4D16-8EE9-16A4E6367B79}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6065520" y="43037760"/>
-          <a:ext cx="1950720" cy="624840"/>
-        </a:xfrm>
-        <a:prstGeom prst="borderCallout1">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 100457"/>
-            <a:gd name="adj2" fmla="val -5208"/>
-            <a:gd name="adj3" fmla="val 13720"/>
-            <a:gd name="adj4" fmla="val -71927"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Xdebug</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>はデフォルトで</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>9000</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>が使われる</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4761,7 +3160,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10943,57 +9342,57 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B14" s="2" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B15" s="2" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B16" s="2" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B18" s="2" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -11010,917 +9409,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A6F5E0D-2C8F-4852-8A3D-D4EF3DB60A64}">
-  <dimension ref="B2:H98"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C4222A-5096-4248-AFA0-DF34DE54F93F}">
+  <dimension ref="A1:M199"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD58" sqref="AD58"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="8" width="3.19921875" style="2"/>
-    <col min="9" max="9" width="3.19921875" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="3.19921875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B2" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B5" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C6" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C7" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B12" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C13" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C14" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C15" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C16" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C17" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B19" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C20" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C21" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="F22" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B23" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C24" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B26" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C27" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C28" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C30" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="10"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C31" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="13"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C32" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="13"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C33" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="13"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C34" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="13"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C35" s="11"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="13"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C36" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="16"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B38" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C39" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C40" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C42" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B44" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C45" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B47" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C48" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B50" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C51" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B53" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C54" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C55" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C56" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C57" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C58" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C59" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C61" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C62" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C63" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C64" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C66" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C67" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C68" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B76" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C77" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C78" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C79" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C80" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C81" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C83" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C84" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C85" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C86" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C87" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C88" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B90" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C91" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C92" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C93" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C95" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C96" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C97" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C98" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA4960FD-AD13-4AA7-AEB4-A09D87D8B8A2}">
-  <dimension ref="C20:H69"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:R18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="16384" width="3.19921875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C20" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="D21" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C23" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="D24" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="D25" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="D27" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="D28" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C65" s="5"/>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C69" s="5"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="D28" r:id="rId1" xr:uid="{E66B55DC-06B2-49DD-A94B-2EC18470755F}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9B4444D-1251-4E91-8B69-749A055C586A}">
-  <dimension ref="B2:O54"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="8" width="3.19921875" style="2"/>
-    <col min="9" max="9" width="3.19921875" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="3.19921875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B2" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C3" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C4" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C5" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C6" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C7" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C8" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C10" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C11" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D12" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C13" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C14" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D15" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D16" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C18" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="D19" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C20" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="D21" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="D22" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="D23" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C25" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="D26" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="D27" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="D28" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="D29" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="D30" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="D31" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="C33" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="D34" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="D35" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="D36" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="D37" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="D39" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="C41" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="42" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="D42" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="43" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="D43" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="45" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="C45" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="D46" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="D47" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C49" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C50" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C52" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="D53" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="D54" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="D39" r:id="rId1" location="htdocs%EF%BC%8F%E3%83%89%E3%82%AD%E3%83%A5%E3%83%A1%E3%83%B3%E3%83%88%E3%83%AB%E3%83%BC%E3%83%88%E3%81%AE%E5%A0%B4%E6%89%80%EF%BC%88OS%E5%88%A5%EF%BC%89" xr:uid="{445A6E4D-51FF-4786-B5D5-1BA7256ABCB8}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B108357B-A1F5-4042-8C72-A6F9E02B638C}">
-  <dimension ref="A1:C225"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="16384" width="3.19921875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" s="3"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B30" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B42" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A45" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A61" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A95" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A120" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B121" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A128" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A202" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A225" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C4222A-5096-4248-AFA0-DF34DE54F93F}">
-  <dimension ref="A1:M131"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C110" sqref="C110"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -11934,495 +9427,565 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
-        <v>288</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
-        <v>266</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
-        <v>268</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
-        <v>271</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" s="2" t="s">
-        <v>267</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" s="2" t="s">
-        <v>269</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B8" s="2" t="s">
-        <v>270</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B9" s="2" t="s">
-        <v>277</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B10" s="2" t="s">
-        <v>278</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B11" s="2" t="s">
-        <v>264</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B12" s="2" t="s">
-        <v>353</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B13" s="2" t="s">
-        <v>374</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B14" s="2" t="s">
-        <v>376</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B15" s="2" t="s">
-        <v>375</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B16" s="2" t="s">
-        <v>377</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B17" s="2" t="s">
-        <v>378</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B18" s="2" t="s">
-        <v>379</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B19" s="2" t="s">
-        <v>380</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B20" s="2" t="s">
-        <v>381</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B21" s="2" t="s">
-        <v>382</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B22" s="2" t="s">
-        <v>383</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.45">
       <c r="C23" s="2" t="s">
-        <v>384</v>
+        <v>272</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>385</v>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A34" s="2" t="s">
-        <v>279</v>
+      <c r="B34" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B35" s="2" t="s">
-        <v>280</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B36" s="2" t="s">
-        <v>281</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B37" s="2" t="s">
-        <v>284</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B38" s="2" t="s">
-        <v>285</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B39" s="2" t="s">
-        <v>286</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B40" s="2" t="s">
-        <v>287</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B41" s="2" t="s">
-        <v>310</v>
+      <c r="C41" s="2" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C42" s="2" t="s">
-        <v>311</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C43" s="2" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C44" s="2" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C45" s="2" t="s">
-        <v>314</v>
+        <v>203</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C46" s="2" t="s">
-        <v>315</v>
+        <v>204</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C47" s="2" t="s">
-        <v>316</v>
+        <v>205</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C48" s="2" t="s">
-        <v>317</v>
+        <v>206</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C49" s="2" t="s">
-        <v>318</v>
+        <v>207</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C50" s="2" t="s">
-        <v>319</v>
+      <c r="B50" s="2" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B51" s="2" t="s">
-        <v>359</v>
+        <v>248</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B52" s="2" t="s">
-        <v>360</v>
+        <v>289</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B53" s="2" t="s">
-        <v>401</v>
+        <v>249</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B54" s="2" t="s">
-        <v>361</v>
+        <v>279</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B55" s="2" t="s">
-        <v>391</v>
+        <v>295</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B56" s="2" t="s">
-        <v>408</v>
+        <v>296</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B57" s="2" t="s">
-        <v>409</v>
+        <v>297</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B58" s="2" t="s">
-        <v>410</v>
+        <v>298</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B59" s="2" t="s">
-        <v>411</v>
+        <v>299</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B60" s="2" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B61" s="2" t="s">
-        <v>413</v>
+        <v>300</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B62" s="2" t="s">
-        <v>430</v>
+        <v>317</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B63" s="2" t="s">
-        <v>424</v>
+        <v>311</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B64" s="2" t="s">
-        <v>425</v>
+        <v>312</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B65" s="2" t="s">
-        <v>426</v>
+        <v>313</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B66" s="2" t="s">
-        <v>423</v>
+        <v>310</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B67" s="2" t="s">
-        <v>427</v>
+        <v>314</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B69" s="2" t="s">
-        <v>431</v>
+        <v>318</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B70" s="2" t="s">
-        <v>432</v>
+        <v>319</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B72" s="2" t="s">
-        <v>435</v>
+        <v>322</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B73" s="2" t="s">
-        <v>437</v>
+        <v>324</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B75" s="2" t="s">
-        <v>438</v>
+        <v>325</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B76" s="2" t="s">
-        <v>439</v>
+        <v>326</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B77" s="2" t="s">
-        <v>440</v>
+        <v>327</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B79" s="2" t="s">
-        <v>442</v>
+        <v>329</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B81" s="2" t="s">
-        <v>444</v>
+        <v>403</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B83" s="2" t="s">
-        <v>485</v>
+        <v>331</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B85" s="2" t="s">
-        <v>452</v>
+        <v>429</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B87" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B88" s="2" t="s">
-        <v>457</v>
+        <v>335</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B89" s="2" t="s">
-        <v>458</v>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B90" s="2" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B91" s="2" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B94" s="2" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B95" s="2" t="s">
-        <v>467</v>
+        <v>341</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B93" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B96" s="2" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B97" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B98" s="2" t="s">
-        <v>479</v>
+        <v>350</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B99" s="2" t="s">
-        <v>469</v>
+        <v>358</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B100" s="2" t="s">
-        <v>470</v>
+        <v>361</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B101" s="2" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B102" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C103" s="2" t="s">
-        <v>503</v>
+        <v>428</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C104" s="2" t="s">
-        <v>490</v>
+      <c r="B104" s="2" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D105" s="2" t="s">
-        <v>494</v>
+      <c r="C105" s="2" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D106" s="2" t="s">
-        <v>495</v>
+        <v>399</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D107" s="2" t="s">
-        <v>496</v>
+        <v>398</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C108" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D109" s="2" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C110" s="2" t="s">
-        <v>493</v>
+      <c r="D110" s="2" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C111" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A118" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B119" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C120" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C121" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C122" s="2" t="s">
+      <c r="D111" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C113" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B115" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B117" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C118" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C119" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B121" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B123" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B125" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B127" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B129" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B131" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B133" s="2" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C123" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B124" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C125" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B126" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C127" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C128" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C129" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B131" s="2" t="s">
-        <v>390</v>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B135" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A186" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B187" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C188" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C189" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C190" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C191" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B192" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C193" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B194" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C195" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C196" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C197" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B199" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -12432,11 +9995,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9449A754-168E-45A0-888C-A45406812C63}">
-  <dimension ref="A1:M254"/>
+  <dimension ref="A1:N301"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -12450,1050 +10013,1158 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
-        <v>265</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C3" s="2" t="s">
-        <v>272</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C4" s="2" t="s">
-        <v>273</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C5" s="2" t="s">
-        <v>274</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C6" s="2" t="s">
-        <v>275</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C7" s="2" t="s">
-        <v>276</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C8" s="2" t="s">
-        <v>305</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B10" s="2" t="s">
-        <v>266</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C11" s="2" t="s">
-        <v>291</v>
+        <v>180</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>290</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D12" s="2" t="s">
-        <v>289</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C13" s="2" t="s">
-        <v>292</v>
+        <v>181</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>293</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D14" s="2" t="s">
-        <v>294</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C15" s="2" t="s">
-        <v>295</v>
+        <v>184</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>296</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C16" s="2" t="s">
-        <v>298</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C17" s="1" t="s">
-        <v>297</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C18" s="1" t="s">
-        <v>299</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B20" s="2" t="s">
-        <v>267</v>
+        <v>156</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C21" s="2" t="s">
-        <v>300</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C22" s="2" t="s">
-        <v>301</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B24" s="2" t="s">
-        <v>277</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C25" s="2" t="s">
-        <v>302</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B27" s="2" t="s">
-        <v>278</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C28" s="2" t="s">
-        <v>303</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C29" s="2" t="s">
-        <v>354</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C30" s="2" t="s">
-        <v>393</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C31" s="2" t="s">
-        <v>355</v>
+        <v>243</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C32" s="2" t="s">
-        <v>356</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B34" s="2" t="s">
-        <v>264</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C35" s="2" t="s">
-        <v>304</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B37" s="2" t="s">
-        <v>353</v>
+        <v>241</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C38" s="2" t="s">
-        <v>357</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C39" s="2" t="s">
-        <v>358</v>
+        <v>246</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B41" s="2" t="s">
-        <v>374</v>
+        <v>262</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C42" s="2" t="s">
-        <v>394</v>
+        <v>282</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B43" s="2" t="s">
-        <v>376</v>
+        <v>264</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C44" s="2" t="s">
-        <v>395</v>
+        <v>283</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B45" s="2" t="s">
-        <v>375</v>
+        <v>263</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C46" s="2" t="s">
-        <v>396</v>
+        <v>284</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B47" s="2" t="s">
-        <v>397</v>
+        <v>285</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C48" s="2" t="s">
-        <v>377</v>
+        <v>265</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C49" s="2" t="s">
-        <v>378</v>
+        <v>266</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C50" s="2" t="s">
-        <v>379</v>
+        <v>267</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C51" s="2" t="s">
-        <v>380</v>
+        <v>268</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C52" s="2" t="s">
-        <v>381</v>
+        <v>269</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B54" s="2" t="s">
-        <v>382</v>
+        <v>270</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C55" s="2" t="s">
-        <v>398</v>
+        <v>286</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B57" s="2" t="s">
-        <v>383</v>
+        <v>271</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C58" s="2" t="s">
-        <v>384</v>
+        <v>272</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A60" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B61" s="2" t="s">
-        <v>400</v>
+      <c r="A61" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="C62" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>282</v>
+      <c r="B62" s="2" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C63" s="2" t="s">
-        <v>281</v>
+        <v>118</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>283</v>
+        <v>171</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="C64" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="F64" s="2" t="s">
-        <v>352</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.45">
       <c r="F65" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B67" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>307</v>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F66" s="2" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B68" s="2" t="s">
-        <v>285</v>
+        <v>173</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>306</v>
+        <v>395</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B69" s="2" t="s">
-        <v>286</v>
+        <v>174</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>309</v>
+        <v>195</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B70" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="E70" s="2" t="s">
-        <v>308</v>
+        <v>197</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B71" s="2" t="s">
-        <v>202</v>
+      <c r="E71" s="2" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B72" s="2" t="s">
-        <v>310</v>
+        <v>122</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C73" s="2" t="s">
-        <v>311</v>
+      <c r="B73" s="2" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C74" s="2" t="s">
-        <v>312</v>
+        <v>199</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C75" s="2" t="s">
-        <v>313</v>
+        <v>200</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C76" s="2" t="s">
-        <v>314</v>
+        <v>201</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C77" s="2" t="s">
-        <v>315</v>
+        <v>202</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C78" s="2" t="s">
-        <v>316</v>
+        <v>203</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C79" s="2" t="s">
-        <v>317</v>
+        <v>204</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C80" s="2" t="s">
-        <v>318</v>
+        <v>205</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C81" s="2" t="s">
-        <v>319</v>
+        <v>206</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C82" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B84" s="2" t="s">
-        <v>359</v>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C83" s="2" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C85" s="2" t="s">
-        <v>363</v>
+      <c r="B85" s="2" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C86" s="2" t="s">
-        <v>365</v>
+        <v>435</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C87" s="2" t="s">
-        <v>364</v>
+        <v>251</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C88" s="2" t="s">
-        <v>366</v>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C89" s="2" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B90" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C91" s="2" t="s">
-        <v>367</v>
+      <c r="C90" s="2" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C92" s="2" t="s">
-        <v>392</v>
+      <c r="B92" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C93" s="2" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B94" s="2" t="s">
-        <v>362</v>
+      <c r="C94" s="2" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C95" s="2" t="s">
-        <v>368</v>
+        <v>280</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B97" s="2" t="s">
-        <v>361</v>
+        <v>250</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C98" s="2" t="s">
-        <v>402</v>
+        <v>256</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B100" s="2" t="s">
-        <v>391</v>
+        <v>249</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C101" s="2" t="s">
-        <v>403</v>
+        <v>437</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B103" s="2" t="s">
-        <v>414</v>
+        <v>279</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C104" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C105" s="2" t="s">
-        <v>416</v>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B106" s="2" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B107" s="2" t="s">
-        <v>415</v>
+      <c r="C107" s="2" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C108" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C109" s="2" t="s">
-        <v>410</v>
+        <v>303</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C110" s="2" t="s">
-        <v>411</v>
+      <c r="B110" s="2" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C111" s="2" t="s">
-        <v>412</v>
+        <v>296</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C112" s="2" t="s">
-        <v>413</v>
+        <v>297</v>
       </c>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C113" s="2" t="s">
-        <v>417</v>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="C114" s="2" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B115" s="2" t="s">
-        <v>422</v>
+      <c r="C115" s="2" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B116" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="J116" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B117" s="2" t="s">
-        <v>425</v>
+      <c r="C116" s="2" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B118" s="2" t="s">
-        <v>426</v>
+        <v>309</v>
       </c>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B119" s="2" t="s">
-        <v>423</v>
+        <v>311</v>
+      </c>
+      <c r="J119" s="2" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B120" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="J120" s="2" t="s">
-        <v>429</v>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B121" s="2" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B122" s="2" t="s">
-        <v>431</v>
+        <v>310</v>
       </c>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C123" s="2" t="s">
-        <v>433</v>
+      <c r="B123" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B125" s="2" t="s">
-        <v>432</v>
+        <v>318</v>
       </c>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C126" s="2" t="s">
-        <v>434</v>
+        <v>320</v>
       </c>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B128" s="2" t="s">
-        <v>435</v>
+        <v>319</v>
       </c>
     </row>
     <row r="129" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C129" s="2" t="s">
-        <v>436</v>
+        <v>321</v>
       </c>
     </row>
     <row r="131" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B131" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B133" s="2" t="s">
-        <v>441</v>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C132" s="2" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="134" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C134" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="I134" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C135" s="2" t="s">
-        <v>439</v>
+      <c r="B134" s="2" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="136" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C136" s="2" t="s">
-        <v>440</v>
+      <c r="B136" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C137" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="I137" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="138" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B138" s="2" t="s">
-        <v>442</v>
+      <c r="C138" s="2" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="139" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C139" s="2" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C140" s="2" t="s">
-        <v>451</v>
+        <v>327</v>
       </c>
     </row>
     <row r="141" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C141" s="2" t="s">
-        <v>446</v>
+      <c r="B141" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C142" s="2" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="143" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B143" s="2" t="s">
-        <v>444</v>
+      <c r="C143" s="2" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="144" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C144" s="2" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.45">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B146" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.45">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C147" s="2" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.45">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C148" s="2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C149" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.45">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B151" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.45">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C152" s="2" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C153" s="2" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C154" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B156" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C157" s="2" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B159" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C160" s="2" t="s">
-        <v>459</v>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B154" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C155" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D156" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D157" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D158" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B160" s="2" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="161" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="F161" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="I161" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="L161" s="2" t="s">
-        <v>462</v>
+      <c r="C161" s="2" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="162" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="L162" s="2" t="s">
-        <v>464</v>
+      <c r="C162" s="2" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="163" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B163" s="2" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="164" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="C164" s="2" t="s">
-        <v>463</v>
+      <c r="C163" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="165" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B165" s="2" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="166" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B166" s="2" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="167" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="C167" s="2" t="s">
-        <v>466</v>
+      <c r="C166" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="168" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B168" s="2" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="169" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B169" s="2" t="s">
-        <v>468</v>
+      <c r="C169" s="2" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="170" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="C170" s="2" t="s">
-        <v>475</v>
+      <c r="F170" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="I170" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="L170" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="171" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="L171" s="2" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="172" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B172" s="2" t="s">
-        <v>467</v>
+        <v>341</v>
       </c>
     </row>
     <row r="173" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C173" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="174" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="C174" s="2" t="s">
-        <v>478</v>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="175" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B175" s="2" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="176" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B176" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C177" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C178" s="2" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C176" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B178" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C179" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.45">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B181" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.45">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C182" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.45">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C183" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.45">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B185" s="2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.45">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C186" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B188" s="2" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C189" s="2" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A192" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C187" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="188" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C188" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B190" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="191" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C191" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C192" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="194" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B194" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="195" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C195" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="197" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B197" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="198" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C198" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="200" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B200" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="201" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C201" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="202" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="D202" s="2" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B193" s="2" t="s">
+    <row r="203" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="E203" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="204" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="D204" s="2" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C194" s="2" t="s">
+    <row r="205" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="E205" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="206" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="E206" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="207" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C207" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="208" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="D208" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="209" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="E209" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="210" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F210" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="211" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="E211" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="212" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F212" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="213" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F213" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="214" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="E214" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="215" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F215" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="217" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="E217" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="218" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F218" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="220" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B220" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="221" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C221" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="222" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C222" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="224" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B224" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="225" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="C225" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="226" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="D226" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="228" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="C228" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="229" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="D229" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="230" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="L230" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="N230" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="232" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="C232" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="234" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B234" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="235" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="C235" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="237" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B237" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="238" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="C238" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="239" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="D239" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="240" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="C240" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="241" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D241" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="246" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B246" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="247" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C247" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="248" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C248" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="250" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B250" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="251" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C251" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="252" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C252" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="254" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B254" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="255" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C255" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="256" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C256" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="258" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B258" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="259" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C259" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="I194" s="2" t="s">
+    </row>
+    <row r="261" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B261" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="262" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C262" s="2" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C195" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="I195" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C196" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="I196" s="2" t="s">
+    <row r="264" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B264" s="2" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C197" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="I197" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="I198" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B202" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C203" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C204" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C205" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B207" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="I207" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B209" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C210" s="2" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="D211" s="2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C213" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="D214" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C216" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="D218" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="219" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="E219" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="220" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="D220" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="221" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="E221" s="2" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="222" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="E222" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="D224" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="225" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="E225" s="2" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="227" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C227" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="228" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="D228" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="229" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="D229" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="231" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C231" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="232" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="D232" s="2" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="233" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="E233" s="2" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="234" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="F234" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="235" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="E235" s="2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="236" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="F236" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="237" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="F237" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="239" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="D239" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="240" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="E240" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="241" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="F241" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="243" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="E243" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="244" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="F244" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="246" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="E246" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="247" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="F247" s="2" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="249" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="E249" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="250" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="F250" s="2" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="252" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D252" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="253" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="E253" s="2" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="254" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="E254" s="2" t="s">
-        <v>514</v>
+    <row r="265" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C265" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A286" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B287" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C288" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="I288" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="289" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C289" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="I289" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="290" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C290" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="I290" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="291" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C291" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="I291" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="292" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="I292" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="296" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B296" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="297" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C297" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="298" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C298" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="299" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C299" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="301" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B301" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="I301" s="2" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -13507,11 +11178,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{052FB61B-4A13-47A2-8718-3697754A0699}">
   <dimension ref="C2:AA25"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -13522,132 +11193,132 @@
   <sheetData>
     <row r="2" spans="3:27" x14ac:dyDescent="0.45">
       <c r="C2" s="2" t="s">
-        <v>234</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="3:27" x14ac:dyDescent="0.45">
       <c r="C3" s="2" t="s">
-        <v>235</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="3:27" x14ac:dyDescent="0.45">
       <c r="C4" s="2" t="s">
-        <v>237</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="3:27" x14ac:dyDescent="0.45">
       <c r="C6" s="2" t="s">
-        <v>238</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="3:27" x14ac:dyDescent="0.45">
       <c r="C7" s="2" t="s">
-        <v>236</v>
+        <v>125</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>242</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="3:27" x14ac:dyDescent="0.45">
       <c r="C9" s="2" t="s">
-        <v>240</v>
+        <v>129</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>256</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="3:27" x14ac:dyDescent="0.45">
       <c r="C10" s="2" t="s">
-        <v>241</v>
+        <v>130</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>243</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="3:27" x14ac:dyDescent="0.45">
       <c r="C12" s="2" t="s">
-        <v>252</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="3:27" x14ac:dyDescent="0.45">
       <c r="C13" s="2" t="s">
-        <v>251</v>
+        <v>140</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>257</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="3:27" x14ac:dyDescent="0.45">
       <c r="C14" s="2" t="s">
-        <v>253</v>
+        <v>142</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>258</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="3:27" x14ac:dyDescent="0.45">
       <c r="C16" s="2" t="s">
-        <v>238</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="3:27" x14ac:dyDescent="0.45">
       <c r="C17" s="2" t="s">
-        <v>239</v>
+        <v>128</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>259</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="3:27" x14ac:dyDescent="0.45">
       <c r="AA18" s="2" t="s">
-        <v>244</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="3:27" x14ac:dyDescent="0.45">
       <c r="C19" s="2" t="s">
-        <v>260</v>
+        <v>149</v>
       </c>
       <c r="AA19" s="2" t="s">
-        <v>248</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="3:27" x14ac:dyDescent="0.45">
       <c r="C20" s="2" t="s">
-        <v>263</v>
+        <v>152</v>
       </c>
       <c r="AA20" s="2" t="s">
-        <v>249</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="3:27" x14ac:dyDescent="0.45">
       <c r="C21" s="2" t="s">
-        <v>262</v>
+        <v>151</v>
       </c>
       <c r="AA21" s="2" t="s">
-        <v>250</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="3:27" x14ac:dyDescent="0.45">
       <c r="C22" s="1" t="s">
-        <v>261</v>
+        <v>150</v>
       </c>
       <c r="AA22" s="2" t="s">
-        <v>245</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="3:27" x14ac:dyDescent="0.45">
       <c r="AA23" s="2" t="s">
-        <v>246</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="3:27" x14ac:dyDescent="0.45">
       <c r="AA24" s="2" t="s">
-        <v>247</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="3:27" x14ac:dyDescent="0.45">
       <c r="AA25" s="2" t="s">
-        <v>255</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -13661,11 +11332,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107B029E-ECF5-4676-91C1-C4A29D01E8E9}">
   <dimension ref="B2:V48"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -13676,205 +11347,205 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C3" s="2" t="s">
-        <v>131</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C4" s="1" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B6" s="2" t="s">
-        <v>132</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C7" s="2" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C8" s="2" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B10" s="2" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C11" s="2" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C12" s="2" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B14" s="2" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C15" s="2" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>157</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.45">
       <c r="F16" s="2" t="s">
-        <v>158</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C17" s="2" t="s">
-        <v>159</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C18" s="2" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.45">
       <c r="F19" s="2" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.45">
       <c r="F20" s="2" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C21" s="2" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.45">
       <c r="F22" s="2" t="s">
-        <v>166</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C23" s="2" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C24" s="2" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C26" s="1" t="s">
-        <v>170</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B28" s="2" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C29" s="2" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C31" s="2" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C32" s="2" t="s">
-        <v>140</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C33" s="2" t="s">
-        <v>141</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C35" s="2" t="s">
-        <v>137</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C36" s="2" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C37" s="2" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C38" s="2" t="s">
-        <v>144</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C40" s="2" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C41" s="1" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B43" s="2" t="s">
-        <v>145</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C44" s="2" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C45" s="2" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B47" s="2" t="s">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="V47" s="2" t="s">
-        <v>254</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B48" s="2" t="s">
-        <v>151</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -13889,13 +11560,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D74DC7-4010-4617-A974-1E5E9561D7E7}">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48"/>
-    </sheetView>
+    <sheetView showGridLines="0" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -13904,216 +11573,216 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C5" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C8" s="2" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C9" s="2" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B11" s="2" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C12" s="2" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C13" s="2" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B17" s="2" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B19" s="2" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.45">
       <c r="C20" s="2" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.45">
       <c r="C21" s="2" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.45">
       <c r="C22" s="2" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.45">
       <c r="C23" s="2" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.45">
       <c r="C24" s="2" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.45">
       <c r="C25" s="2" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B27" s="2" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.45">
       <c r="C28" s="2" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.45">
       <c r="C29" s="2" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="M29" s="7"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B31" s="5" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.45">
       <c r="C32" s="2" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C33" s="2" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B35" s="5" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C36" s="2" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C37" s="2" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B39" s="2" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C40" s="2" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B42" s="2" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C43" s="2" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B45" s="2" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C46" s="2" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B48" s="2" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C49" s="2" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B51" s="2" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B53" s="2" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C54" s="2" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B56" s="2" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C57" s="2" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C58" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C59" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -14124,7 +11793,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A989A803-F200-457C-8D50-267D686D569A}">
   <dimension ref="B2:B5"/>
   <sheetViews>
@@ -14139,22 +11808,22 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -14168,13 +11837,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C8383D6-672D-4776-ACD6-B4CCFA974FBA}">
-  <dimension ref="A1:M36"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9B4444D-1251-4E91-8B69-749A055C586A}">
+  <dimension ref="B2:O54"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
-    </sheetView>
+    <sheetView showGridLines="0" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -14183,278 +11850,253 @@
     <col min="10" max="16384" width="3.19921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B3" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B4" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B6" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B7" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="19"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B8" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B11" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B12" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="19"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B14" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B15" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B16" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="13"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="13"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B18" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="13"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B19" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B20" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B22" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B23" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="10"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B24" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="13"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B25" s="11"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="13"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B26" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="13"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B27" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="13"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B28" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="16"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B30" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B31" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="10"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B32" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="13"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B33" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="13"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B34" s="11"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="13"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B35" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="13"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B36" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="16"/>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C3" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C4" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C5" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C6" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C7" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C8" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C10" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C11" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D12" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C13" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C14" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D15" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D16" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C18" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="D19" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C20" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="D21" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="D22" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="D23" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C25" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="D26" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="D27" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="D28" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="D29" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="D30" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="D31" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="C33" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="D34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="D35" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="D36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="D37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="D39" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="C41" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="42" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="D42" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="43" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="D43" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="45" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="C45" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="D46" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="D47" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C49" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C50" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C52" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D53" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D54" s="2" t="s">
+        <v>234</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="D39" r:id="rId1" location="htdocs%EF%BC%8F%E3%83%89%E3%82%AD%E3%83%A5%E3%83%A1%E3%83%B3%E3%83%88%E3%83%AB%E3%83%BC%E3%83%88%E3%81%AE%E5%A0%B4%E6%89%80%EF%BC%88OS%E5%88%A5%EF%BC%89" xr:uid="{445A6E4D-51FF-4786-B5D5-1BA7256ABCB8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>